--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,13 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144022EE-CF72-4CE0-8070-641F313C5F56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DC1464-A3C8-4E58-AA95-DDB64A7EEF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="821" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Retanqueo" sheetId="10" r:id="rId1"/>
-    <sheet name="ClientesBienvenidaRetanqueos" sheetId="1" r:id="rId2"/>
+    <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
+    <sheet name="AnalisisCreditoRetanqueo" sheetId="12" r:id="rId2"/>
+    <sheet name="ClientesBienvenidaRetanqueos" sheetId="13" r:id="rId3"/>
+    <sheet name="CreditosVisacionRetanqueos" sheetId="16" r:id="rId4"/>
+    <sheet name="DesembolsoRetanqueos" sheetId="14" r:id="rId5"/>
+    <sheet name="RetanqueoCCS" sheetId="15" r:id="rId6"/>
+    <sheet name="AnalisisCreditoRetanqueoCCS" sheetId="17" r:id="rId7"/>
+    <sheet name="ClientesBienvenidaRetanqueoCCS" sheetId="18" r:id="rId8"/>
+    <sheet name="CreditosVisacionRetanqueosCCS" sheetId="19" r:id="rId9"/>
+    <sheet name="DesembolsoCarteraCCS" sheetId="20" r:id="rId10"/>
+    <sheet name="VisacionSaneamientoCCS" sheetId="21" r:id="rId11"/>
+    <sheet name="DesembolsoSaneamientoCCS" sheetId="22" r:id="rId12"/>
+    <sheet name="DesembolsoRetanqueosCCS" sheetId="23" r:id="rId13"/>
+    <sheet name="RetanqueoMultiple" sheetId="10" r:id="rId14"/>
+    <sheet name="ClientesBienvenidaRetanqueoMult" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="64">
   <si>
     <t>Cedula</t>
   </si>
@@ -58,32 +71,182 @@
     <t>TipoDesen</t>
   </si>
   <si>
-    <t>3125117715</t>
-  </si>
-  <si>
-    <t>prueba@mail.com</t>
-  </si>
-  <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
-    <t>85863</t>
-  </si>
-  <si>
-    <t>1110448827</t>
-  </si>
-  <si>
-    <t>91216107</t>
-  </si>
-  <si>
-    <t>P.A COLPENSIONES</t>
+    <t>rutaPDF</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>Plazo</t>
+  </si>
+  <si>
+    <t>DiasHabilesIntereses</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>descLey</t>
+  </si>
+  <si>
+    <t>descNomina</t>
+  </si>
+  <si>
+    <t>VlrCompraSaneamiento</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>"9000000"</t>
+  </si>
+  <si>
+    <t>"79919146"</t>
+  </si>
+  <si>
+    <t>"71403"</t>
+  </si>
+  <si>
+    <t>"src/test/resources/Data/PDFPRUEBA.pdf"</t>
+  </si>
+  <si>
+    <t>"90"</t>
+  </si>
+  <si>
+    <t>"10"</t>
+  </si>
+  <si>
+    <t>"6500000"</t>
+  </si>
+  <si>
+    <t>"380000"</t>
+  </si>
+  <si>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"3500000"</t>
+  </si>
+  <si>
+    <t>"2258"</t>
+  </si>
+  <si>
+    <t>"1.8"</t>
+  </si>
+  <si>
+    <t>NombreCredito</t>
+  </si>
+  <si>
+    <t>decLey</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>AnnoAfetacion</t>
+  </si>
+  <si>
+    <t>"WILLIAM FRANCISCO"</t>
+  </si>
+  <si>
+    <t>"Octubre"</t>
+  </si>
+  <si>
+    <t>"360000"</t>
+  </si>
+  <si>
+    <t>"19/10/2021"</t>
+  </si>
+  <si>
+    <t>"13"</t>
+  </si>
+  <si>
+    <t>"2021"</t>
+  </si>
+  <si>
+    <t>"3115128152"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Efectivo" </t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>"Remanentes - 60237038927 - REMANENTE"</t>
+  </si>
+  <si>
+    <t>fechaActual</t>
+  </si>
+  <si>
+    <t>IngresosMes</t>
+  </si>
+  <si>
+    <t>"7000000"</t>
+  </si>
+  <si>
+    <t>"25"</t>
+  </si>
+  <si>
+    <t>"930000"</t>
+  </si>
+  <si>
+    <t>NombreCredio</t>
+  </si>
+  <si>
+    <t>Cartera1</t>
+  </si>
+  <si>
+    <t>Saneamiento2</t>
+  </si>
+  <si>
+    <t>"830000"</t>
+  </si>
+  <si>
+    <t>"Efectivo"</t>
+  </si>
+  <si>
+    <t>"24478657"</t>
+  </si>
+  <si>
+    <t>"1000000"</t>
+  </si>
+  <si>
+    <t>"dandresabogadog@mail.com"</t>
+  </si>
+  <si>
+    <t>"85863"</t>
+  </si>
+  <si>
+    <t>"1110448827"</t>
+  </si>
+  <si>
+    <t>"3125117715"</t>
+  </si>
+  <si>
+    <t>"5000000"</t>
+  </si>
+  <si>
+    <t>"91216107"</t>
+  </si>
+  <si>
+    <t>"P.A COLPENSIONES"</t>
+  </si>
+  <si>
+    <t>"71039"</t>
+  </si>
+  <si>
+    <t>"MARIA LUBIC"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +256,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -124,7 +294,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -405,11 +575,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAB8B06-AB93-4571-AE11-74C96A6F1D5F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052627B-C391-4BA9-B8BF-A2F297901E10}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA008934-7A22-4614-999B-B2D834D4C993}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31E397-96F1-4567-A47E-2ED291A7FBD7}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,13 +891,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5000000</v>
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -444,17 +905,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,26 +939,633 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9840C493-B129-4F1C-B7EA-9D2CB891C77A}"/>
+    <hyperlink ref="D2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{E0D8C32B-A6F8-4EF6-A36F-73FC45FA7DC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEB2DC1-DD13-4EE2-AF82-4D7C753944BA}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB72DA3-A450-4417-B142-66D79AC54194}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{28177C8A-F863-40DF-8E14-D555DE197E55}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD989E4E-BFC5-4F53-901F-526EE94C831B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF4E62-774D-4D01-9FBA-7F8FE9345C86}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867155A-9367-4611-B57D-923A3BAD7224}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D03B82-94E7-48A9-A335-0AAF3C0935B9}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A8EF61-4AD7-4161-AFD3-D7038E375362}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{5372925A-5B01-4F55-AC86-8B7393ADE141}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B23121-DCE4-41C0-BE42-84D85AC5DB0E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61606D2-675F-4702-9810-01993B5A8363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D6A8E-F836-49C9-806F-990364F61333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="821" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -234,12 +234,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,10 +261,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -553,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,34 +590,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K1" t="s">
@@ -618,16 +626,16 @@
       <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q1" t="s">
@@ -723,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867155A-9367-4611-B57D-923A3BAD7224}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,58 +762,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="S1" t="s">
@@ -817,7 +825,7 @@
       <c r="U1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W1" t="s">
@@ -911,7 +919,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,16 +933,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThainerPerez\Repositorios\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D6A8E-F836-49C9-806F-990364F61333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9348BA5-ECCA-490F-B052-1B2B9A48955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="821" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
   <si>
     <t>Cedula</t>
   </si>
@@ -173,9 +173,6 @@
     <t>"5000000"</t>
   </si>
   <si>
-    <t>"91216107"</t>
-  </si>
-  <si>
     <t>"P.A COLPENSIONES"</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>"3145363053"</t>
+  </si>
+  <si>
+    <t>"8682110"</t>
   </si>
 </sst>
 </file>
@@ -261,18 +261,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -561,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,13 +668,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -686,19 +698,19 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -713,7 +725,7 @@
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
         <v>34</v>
@@ -732,7 +744,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,13 +846,13 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -870,13 +882,13 @@
         <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -885,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
         <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>55</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>41</v>
@@ -897,7 +909,7 @@
         <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W2" t="s">
         <v>34</v>
@@ -905,7 +917,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{5372925A-5B01-4F55-AC86-8B7393ADE141}"/>
@@ -916,10 +928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +944,7 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -954,16 +966,43 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
@@ -977,13 +1016,42 @@
       <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{E0D8C32B-A6F8-4EF6-A36F-73FC45FA7DC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThainerPerez\Repositorios\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9348BA5-ECCA-490F-B052-1B2B9A48955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9D716-8388-46A7-B517-DB503FAD5EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t>Cedula</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>"8682110"</t>
+  </si>
+  <si>
+    <t>"25/10/2021"</t>
+  </si>
+  <si>
+    <t>"LUIS CARLOS"</t>
   </si>
 </sst>
 </file>
@@ -928,23 +934,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -993,8 +1016,32 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1042,6 +1089,30 @@
       </c>
       <c r="P2" t="s">
         <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9D716-8388-46A7-B517-DB503FAD5EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5FDF2-6C55-4EA1-95BF-E84EBFCF5E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>"5000000"</t>
   </si>
   <si>
-    <t>"P.A COLPENSIONES"</t>
-  </si>
-  <si>
     <t>"24580532"</t>
   </si>
   <si>
@@ -203,13 +200,16 @@
     <t>"3145363053"</t>
   </si>
   <si>
-    <t>"8682110"</t>
-  </si>
-  <si>
     <t>"25/10/2021"</t>
   </si>
   <si>
-    <t>"LUIS CARLOS"</t>
+    <t>"27072341"</t>
+  </si>
+  <si>
+    <t>"FOPEP"</t>
+  </si>
+  <si>
+    <t>"ALBA  DE JESUS"</t>
   </si>
 </sst>
 </file>
@@ -674,13 +674,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -704,19 +704,19 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -731,7 +731,7 @@
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
         <v>34</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -888,13 +888,13 @@
         <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -903,10 +903,10 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
         <v>53</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>41</v>
@@ -915,7 +915,7 @@
         <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W2" t="s">
         <v>34</v>
@@ -936,14 +936,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1049,7 +1048,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
@@ -1085,7 +1084,7 @@
         <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -1097,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
         <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
         <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5FDF2-6C55-4EA1-95BF-E84EBFCF5E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCFCDA-E9D2-4306-BFF4-0482830F43DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,13 +203,13 @@
     <t>"25/10/2021"</t>
   </si>
   <si>
-    <t>"27072341"</t>
+    <t>"12962960"</t>
   </si>
   <si>
     <t>"FOPEP"</t>
   </si>
   <si>
-    <t>"ALBA  DE JESUS"</t>
+    <t>"ROBERTO HERNAN"</t>
   </si>
 </sst>
 </file>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCFCDA-E9D2-4306-BFF4-0482830F43DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1AB537-CFD1-4DCD-AAA0-06343F10C90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,13 +203,13 @@
     <t>"25/10/2021"</t>
   </si>
   <si>
-    <t>"12962960"</t>
-  </si>
-  <si>
-    <t>"FOPEP"</t>
-  </si>
-  <si>
-    <t>"ROBERTO HERNAN"</t>
+    <t>"JHON FREDY"</t>
+  </si>
+  <si>
+    <t>"10002426"</t>
+  </si>
+  <si>
+    <t>"P.A COLPENSIONES"</t>
   </si>
 </sst>
 </file>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
@@ -1084,13 +1084,13 @@
         <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
         <v>28</v>
@@ -1108,10 +1108,10 @@
         <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1AB537-CFD1-4DCD-AAA0-06343F10C90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BB0DDB-E5B6-4C8E-B7C3-3C08D6CD9BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -203,13 +203,13 @@
     <t>"25/10/2021"</t>
   </si>
   <si>
-    <t>"JHON FREDY"</t>
-  </si>
-  <si>
-    <t>"10002426"</t>
-  </si>
-  <si>
-    <t>"P.A COLPENSIONES"</t>
+    <t>"34957577"</t>
+  </si>
+  <si>
+    <t>"FOPEP"</t>
+  </si>
+  <si>
+    <t>"EMMA LUCILA"</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
@@ -1090,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
         <v>28</v>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCFCDA-E9D2-4306-BFF4-0482830F43DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD740AF-58CF-4841-91D0-425E1A036F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
     <sheet name="RetanqueoCCS" sheetId="15" r:id="rId2"/>
     <sheet name="RetanqueoMultiple" sheetId="10" r:id="rId3"/>
+    <sheet name="RetanqueoDigiCredito" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
   <si>
     <t>Cedula</t>
   </si>
@@ -210,6 +211,12 @@
   </si>
   <si>
     <t>"ROBERTO HERNAN"</t>
+  </si>
+  <si>
+    <t>NumRadicadoCredito</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -580,7 +587,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -1124,4 +1131,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{D5863895-FF56-4A5B-A97A-AD0B2D0EAFB1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD740AF-58CF-4841-91D0-425E1A036F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE998D3C-68A5-42E2-9908-43E42BCBE9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>Cedula</t>
   </si>
@@ -216,7 +216,31 @@
     <t>NumRadicadoCredito</t>
   </si>
   <si>
-    <t>""</t>
+    <t>"86292"</t>
+  </si>
+  <si>
+    <t>"OSCAR"</t>
+  </si>
+  <si>
+    <t>"7500000"</t>
+  </si>
+  <si>
+    <t>"10092369"</t>
+  </si>
+  <si>
+    <t>"68003"</t>
+  </si>
+  <si>
+    <t>"50"</t>
+  </si>
+  <si>
+    <t>"8700000"</t>
+  </si>
+  <si>
+    <t>"250000"</t>
+  </si>
+  <si>
+    <t>"300000"</t>
   </si>
 </sst>
 </file>
@@ -1137,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,13 +1237,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1228,19 +1252,19 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>48</v>
@@ -1249,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE998D3C-68A5-42E2-9908-43E42BCBE9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595C1E9-B42D-48EA-BA31-0EC3F80A9E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
     <sheet name="RetanqueoCCS" sheetId="15" r:id="rId2"/>
     <sheet name="RetanqueoMultiple" sheetId="10" r:id="rId3"/>
     <sheet name="RetanqueoDigiCredito" sheetId="16" r:id="rId4"/>
+    <sheet name="RetanqueoDigiCreditoCCS" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
   <si>
     <t>Cedula</t>
   </si>
@@ -241,6 +242,9 @@
   </si>
   <si>
     <t>"300000"</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -311,7 +315,17 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -781,7 +795,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +968,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{5372925A-5B01-4F55-AC86-8B7393ADE141}"/>
@@ -1147,7 +1161,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{E0D8C32B-A6F8-4EF6-A36F-73FC45FA7DC0}"/>
@@ -1161,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1309,4 +1323,173 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{21B5F5BB-B84D-490B-A13C-0ADBD1298F3B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595C1E9-B42D-48EA-BA31-0EC3F80A9E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922E3611-C58B-4463-A7EC-9B1D282F7516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="74">
   <si>
     <t>Cedula</t>
   </si>
@@ -244,7 +244,22 @@
     <t>"300000"</t>
   </si>
   <si>
-    <t>""</t>
+    <t>"134950"</t>
+  </si>
+  <si>
+    <t>"200000"</t>
+  </si>
+  <si>
+    <t>"450000"</t>
+  </si>
+  <si>
+    <t>"3228483385"</t>
+  </si>
+  <si>
+    <t>"25/11/2021"</t>
+  </si>
+  <si>
+    <t>"86308"</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1345,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,10 +1429,10 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1426,28 +1441,28 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1459,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>41</v>
@@ -1474,13 +1489,13 @@
         <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s">
         <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922E3611-C58B-4463-A7EC-9B1D282F7516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D92792-A23D-4646-96AB-DDF5EB8D1D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D92792-A23D-4646-96AB-DDF5EB8D1D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2499D-08B8-49D6-9E0B-7E7B3AE664B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -259,7 +259,7 @@
     <t>"25/11/2021"</t>
   </si>
   <si>
-    <t>"86308"</t>
+    <t>"86318"</t>
   </si>
 </sst>
 </file>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2499D-08B8-49D6-9E0B-7E7B3AE664B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4B6BF8-C44B-4991-AB95-3AE2130DF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="84">
   <si>
     <t>Cedula</t>
   </si>
@@ -127,9 +127,6 @@
     <t>"Octubre"</t>
   </si>
   <si>
-    <t>"13"</t>
-  </si>
-  <si>
     <t>"2021"</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Saneamiento2</t>
   </si>
   <si>
-    <t>"830000"</t>
-  </si>
-  <si>
     <t>"Efectivo"</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>"20/10/2021"</t>
   </si>
   <si>
-    <t>"730000"</t>
-  </si>
-  <si>
     <t>"3145363053"</t>
   </si>
   <si>
@@ -260,6 +251,45 @@
   </si>
   <si>
     <t>"86318"</t>
+  </si>
+  <si>
+    <t>"6000000"</t>
+  </si>
+  <si>
+    <t>"18"</t>
+  </si>
+  <si>
+    <t>"6700000"</t>
+  </si>
+  <si>
+    <t>"1000000"</t>
+  </si>
+  <si>
+    <t>"Enero"</t>
+  </si>
+  <si>
+    <t>"2022"</t>
+  </si>
+  <si>
+    <t>"570000"</t>
+  </si>
+  <si>
+    <t>"430000"</t>
+  </si>
+  <si>
+    <t>"93341535"</t>
+  </si>
+  <si>
+    <t>"83108"</t>
+  </si>
+  <si>
+    <t>"ALEXANDER"</t>
+  </si>
+  <si>
+    <t>"1.60"</t>
+  </si>
+  <si>
+    <t>"03/12/2021"</t>
   </si>
 </sst>
 </file>
@@ -317,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
@@ -325,12 +355,43 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -726,21 +787,21 @@
         <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -764,37 +825,37 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -809,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867155A-9367-4611-B57D-923A3BAD7224}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,10 +950,10 @@
         <v>27</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -904,36 +965,36 @@
         <v>6</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -945,48 +1006,57 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="A1:XFD1 A3:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:XFD2">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:U2 W2">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{5372925A-5B01-4F55-AC86-8B7393ADE141}"/>
+    <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{6D944EE1-0455-4106-B282-823227FA6D03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1088,39 +1158,39 @@
         <v>27</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
         <v>37</v>
-      </c>
-      <c r="X1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -1144,34 +1214,34 @@
         <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
         <v>28</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1255,24 +1325,24 @@
         <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1281,55 +1351,55 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1400,10 +1470,10 @@
         <v>27</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -1415,24 +1485,24 @@
         <v>6</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1441,61 +1511,61 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>72</v>
-      </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2499D-08B8-49D6-9E0B-7E7B3AE664B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F609226-DD82-47E0-AB31-732986D9D99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>NumRadicadoCredito</t>
   </si>
   <si>
-    <t>"86292"</t>
-  </si>
-  <si>
     <t>"OSCAR"</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>"86318"</t>
+  </si>
+  <si>
+    <t>"86379"</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1281,19 +1281,19 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>48</v>
@@ -1302,7 +1302,7 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1329,7 +1329,7 @@
         <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1429,10 +1429,10 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1441,28 +1441,28 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>41</v>
@@ -1489,13 +1489,13 @@
         <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s">
         <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F609226-DD82-47E0-AB31-732986D9D99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED13017C-FE5B-4311-B601-FCC7CD27B85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
   <si>
     <t>Cedula</t>
   </si>
@@ -175,30 +175,18 @@
     <t>"5000000"</t>
   </si>
   <si>
-    <t>"24580532"</t>
-  </si>
-  <si>
-    <t>"78635"</t>
-  </si>
-  <si>
     <t>"8000000"</t>
   </si>
   <si>
     <t>"0"</t>
   </si>
   <si>
-    <t>"BLANCA NURY"</t>
-  </si>
-  <si>
     <t>"14/06/1969"</t>
   </si>
   <si>
     <t>"20/10/2021"</t>
   </si>
   <si>
-    <t>"730000"</t>
-  </si>
-  <si>
     <t>"3145363053"</t>
   </si>
   <si>
@@ -260,6 +248,24 @@
   </si>
   <si>
     <t>"86379"</t>
+  </si>
+  <si>
+    <t>"Diciembre"</t>
+  </si>
+  <si>
+    <t>"9696579"</t>
+  </si>
+  <si>
+    <t>"MANUEL ERACLIO"</t>
+  </si>
+  <si>
+    <t>"72949"</t>
+  </si>
+  <si>
+    <t>"1030000"</t>
+  </si>
+  <si>
+    <t>"14/12/2021"</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,13 +740,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -764,19 +770,19 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -791,7 +797,7 @@
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
         <v>34</v>
@@ -809,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867155A-9367-4611-B57D-923A3BAD7224}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,13 +918,13 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -945,28 +951,28 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>41</v>
@@ -975,7 +981,7 @@
         <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s">
         <v>34</v>
@@ -1102,13 +1108,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>42</v>
@@ -1144,34 +1150,34 @@
         <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
         <v>28</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
         <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
         <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1261,18 +1267,18 @@
         <v>33</v>
       </c>
       <c r="V1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1281,34 +1287,34 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -1323,13 +1329,13 @@
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
         <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1421,18 +1427,18 @@
         <v>33</v>
       </c>
       <c r="X1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1441,46 +1447,46 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>41</v>
@@ -1489,13 +1495,13 @@
         <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="W2" t="s">
         <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\ana.desarrollo59\Documents\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4B6BF8-C44B-4991-AB95-3AE2130DF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6CAFF8-C74D-4E0F-AB07-40BEC37EDBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -37,6 +37,2941 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Analista Desarrollo59</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{6095D69F-1C6A-42C1-83D0-52CB3B31FF53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto solicitado para el Retanqueo;
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{21B08E5A-6B45-4269-9207-ECD196F8BCD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cedula del cliente
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E0B704B7-E349-4310-A7B4-8B013DD1A588}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero indentificador de el credito al cual posteriormente se va a realizar un Retanqueo.
+Es importante verificar el estado del credito en curso por consulta a base de datos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{CD23CEAB-00E8-4F1D-A23D-A80C7DDDBC0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
+*Verificar su existencia antes de lanzar una prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{DC6DD0EE-486E-43E0-87CE-3DBD0890C5A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tasa del Crédito;
+*Debe siempre estar a dos decimales.
+Eje:
+1.8 -&gt; 1.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{1A5B7157-5DF8-4D59-B705-D9756D69D7FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Plazo en meses del crédito
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{1C46F07A-E320-48C5-AAE2-802B4D23E45B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Días hábiles de intereses iniciales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{851396C6-6790-4F0E-9867-AB36A6190D94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{9BF633B8-5459-49BB-8C09-4456A202FD24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuentos de Ley;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{90DA1FDB-6F62-47B2-8F09-D12C280E0961}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuento de nomina;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{0CFC127E-166D-404B-ACF0-D0E216CB9F96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{0713DCB9-EDCB-4EDC-ABB2-EC0872D6B88A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{6B673BA1-244E-44B6-958C-6EC049E9A42C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Crédito;
+*Se recomienda usar el primer nombre del Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{73AC7EAD-E220-4BB8-8D22-614A8A71EF43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{36F6462D-1F9A-4D20-B241-C0CB0B9C88A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año de nacimiento del cliente;
+*Debe estar en formato:
+DD/MM/AA
+*El mes con las primeras tres iniciales
+*El día menor a 10 debe iniciar con Cero.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{18A5BFA2-2B8E-471A-A342-BC6ADCE4C1F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año actual.
+*Formato;
+año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{8F98FF01-7C80-479A-ACAB-9A096C98ACDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero Celular del Cliente;
+*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{B491A5C1-B252-40AE-8856-710F3C78B727}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correo electrónico del Cliente;
+*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{EE9005AA-3F7B-4D2D-8C5F-42875A305E2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de desembolso del crédito.
+*Debe coincidir con las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{38A98698-3D1E-4FB1-A72E-653FB19E3246}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha Actual
+*Formato de fecha:
+DD/MM/AA
+*Mes en formato alfabético, solo tres primeras letras, inicial en mayúscula
+*Dia menor a 10 inicia por Cero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{305D8154-B5A3-45E5-863A-D4FC3643835F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Analista Desarrollo59</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CB571ABD-5B23-450D-9850-534D908A2CE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto solicitado para el Retanqueo;
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B524FA76-59EC-4684-A18D-64BF59ACC132}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cedula del cliente
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{55C2FC38-7047-488B-AB92-9784524D0CB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero indentificador de el credito al cual posteriormente se va a realizar un Retanqueo.
+Es importante verificar el estado del credito en curso por consulta a base de datos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{6B86C7DF-8272-4D89-BA5C-D9B84328A029}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
+*Verificar su existencia antes de lanzar una prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{8712F04C-4EE8-4D40-8499-0AA9782BBB02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tasa del Crédito;
+*Debe siempre estar a dos decimales.
+Eje:
+1.8 -&gt; 1.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{94D62A01-E26E-4644-87FB-B79D185D6130}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Plazo en meses del crédito
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{3EA524F3-1423-49A2-838A-385AD583D999}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Días hábiles de intereses iniciales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00179D58-1A7D-4F90-BE5E-164235085EE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00BD94EE-2B72-405C-ACCA-6AC85470B6F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuentos de Ley;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{7AC96732-480E-4619-A003-16DE6E8C56F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuento de nomina;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{E606B0C7-2A62-4E53-8B4F-134DCD8C9CBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{EF0D14E9-FF59-4F9E-9E08-3CA58F3BBFBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{4D959A3F-0FE1-433E-B497-F5DD68F942F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Crédito;
+*Se recomienda usar el primer nombre del Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{F31D4CC5-F273-4AA0-8767-7B38A8E7DD41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{7291F24F-FE72-4272-A274-C3518A2F3BEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año de nacimiento del cliente;
+*Debe estar en formato:
+DD/MM/AA
+*El mes con las primeras tres iniciales
+*El día menor a 10 debe iniciar con Cero.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{690FBA16-A960-4469-9F66-7BC09C1CBEB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año actual.
+*Formato;
+año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{EBB674C8-DEB5-44AD-8946-EB99FFB06DCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto de la cartera que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{BF10A777-12B6-4E27-8597-2D230926640D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto del Saneamiento que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{79060F94-DBAE-436C-92BB-DB7B62387D92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero Celular del Cliente;
+*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{59E09D31-A897-4DAE-A4D8-B36FD58C0B93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correo electrónico del Cliente;
+*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{6273E8C3-7E11-4FCB-95C9-6E5454C8E2D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de desembolso del crédito.
+*Debe coincidir con las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{D6B0718E-FC6C-4F9E-96DF-E3C45F289E4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha Actual
+*Formato de fecha:
+DD/MM/AA
+*Mes en formato alfabético, solo tres primeras letras, inicial en mayúscula
+*Dia menor a 10 inicia por Cero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{0C4F0F67-C888-46FF-AB16-EA2DF22E8F48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Analista Desarrollo59</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B4D4F1EF-2549-4F3E-8AA6-3B041A1D14A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cedula del cliente
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{FAA6B369-1510-4AE6-9434-BA1113644CB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto solicitado para el Retanqueo;
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{997A0393-BE6E-4696-A482-0CFF5A427CAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre de la pagaduría, debe estar escrita tal cual en Base de datos.
+Consultar Base de datos para corroborar datos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{60193D37-F660-432D-9E70-182033DBEDF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero indentificador de el credito al cual posteriormente se va a realizar un Retanqueo.
+Es importante verificar el estado del credito en curso por consulta a base de datos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{EB488833-5100-442F-8BDE-DB82EE2A1F18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero Celular del Cliente;
+*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{79EB038C-B544-4A7F-9241-316CD38DD4F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correo electrónico del Cliente;
+*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{F0FA5315-3AD0-4520-8276-EA51569BFBFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de desembolso del crédito.
+*Debe coincidir con las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{4AF79516-344A-4037-9A1D-6BF2B63B2528}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
+*Verificar su existencia antes de lanzar una prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{0EC328DA-702B-4E78-BC31-C6426FF12DC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tasa del Crédito;
+*Debe siempre estar a dos decimales.
+Eje:
+1.8 -&gt; 1.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{17C01AD4-A33A-4404-A8D8-1E79A8CB325F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Plazo en meses del crédito
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{B1B4710D-6463-43AA-BE01-0EDD39AE193F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Días hábiles de intereses iniciales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{D931EB1A-DE95-4057-AC4E-BAFDF49A154D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{E01FA7E4-D0ED-4149-B2DF-D556C63D555A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuentos de Ley;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{F7D51935-66F1-4B79-A483-145F3F75D09B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuento de nomina;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{A199E41D-4A98-4083-A39A-A940CA8C8335}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{4CBEACE4-3793-4D87-BC16-7E45AF13380D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{0AECC7B0-1FD0-46BB-843E-895E3E5D8B1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Crédito;
+*Se recomienda usar el primer nombre del Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{D2129794-80A3-4A1F-A729-4845201A9911}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{C06083C8-4B77-47CC-A870-F346DD681620}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año de nacimiento del cliente;
+*Debe estar en formato:
+DD/MM/AA
+*El mes con las primeras tres iniciales
+*El día menor a 10 debe iniciar con Cero.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{D4D776E1-E74E-46B0-8741-FE666FDF3197}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año actual.
+*Formato;
+año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{E3E59771-6B0D-4E31-B827-6201EB56B990}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha Actual
+*Formato de fecha:
+DD/MM/AA
+*Mes en formato alfabético, solo tres primeras letras, inicial en mayúscula
+*Dia menor a 10 inicia por Cero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{31BA64F1-F8E6-4217-9F4F-2BFFEF8011E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{5E7C6ABB-76E2-4F63-A800-6AB067A8D19E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto de la cartera que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{95EBF52A-C583-4235-A6DE-3A78C45E93DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto del Saneamiento que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Analista Desarrollo59</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{353F3E1F-10A9-416C-BA04-CA56660A6A42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto solicitado para el Retanqueo;
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{3B2E6665-1161-465A-9919-593F8BAB7E3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cedula del cliente
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{8E41B866-9CE8-4640-B73E-8B44B5AD4B1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero indentificador de el credito al cual posteriormente se va a realizar un Retanqueo.
+Es importante verificar el estado del credito en curso por consulta a base de datos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{FAAB58F7-2414-4FB4-BBF5-29FDA7D477B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
+*Verificar su existencia antes de lanzar una prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{FA5C9D60-25CB-4BB4-A0AD-96AE93E4AAAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tasa del Crédito;
+*Debe siempre estar a dos decimales.
+Eje:
+1.8 -&gt; 1.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{2E867ECB-FAEE-4CBD-BEE2-8699EA0BBCDA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Plazo en meses del crédito
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{032BD7F8-3C3A-4344-B16E-125B29DAD5C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Días hábiles de intereses iniciales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{7E174531-6A3D-43A8-B567-B35388F0CB42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{6EF5609D-2001-453E-BF65-2782D1F7FDE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuentos de Ley;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{BB0A46B0-97B9-41AB-A021-35650472F611}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuento de nomina;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{82A33A78-212A-4894-B97B-E45C19C6A9F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{58B2DE73-4167-44E9-8394-54CFC916176C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{0C88D942-5E6C-41CA-B59E-90433CA52587}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Crédito;
+*Se recomienda usar el primer nombre del Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{6436F56C-283A-421F-B57C-EF65D7B89BF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{17FCF534-CF3F-4B1A-9339-160EB5253042}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año de nacimiento del cliente;
+*Debe estar en formato:
+DD/MM/AA
+*El mes con las primeras tres iniciales
+*El día menor a 10 debe iniciar con Cero.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{E8990F3C-3B52-46EC-95CA-170CD77F6A3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año actual.
+*Formato;
+año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{6676205E-1F42-4D8B-98D5-4AED787CF364}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero Celular del Cliente;
+*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{15271C4F-3097-477B-8723-61C833CA4110}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correo electrónico del Cliente;
+*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{BB929CF6-70A6-464E-ABDC-F7BF277E256C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de desembolso del crédito.
+*Debe coincidir con las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{2420F73B-7320-453B-8168-FD47943D43D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha Actual
+*Formato de fecha:
+DD/MM/AA
+*Mes en formato alfabético, solo tres primeras letras, inicial en mayúscula
+*Dia menor a 10 inicia por Cero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{24E3F299-F892-40D3-ABE6-F560D3489C0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{56800A1E-CD51-4106-AD9F-E80AF4C53521}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero de radicación de la solicitud.
+Consultarlo en base de datos.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Analista Desarrollo59</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{59A1EB8B-D59C-4898-B649-AF7155B9928B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto solicitado para el Retanqueo;
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{5361033C-86CC-4589-911F-A6E415423457}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cedula del cliente
+*No debe contener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F6D934E5-5668-433E-8C78-D69834BA0EC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero indentificador de el credito al cual posteriormente se va a realizar un Retanqueo.
+Es importante verificar el estado del credito en curso por consulta a base de datos.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{B65331B1-0221-4698-A9FC-0F5AECF04779}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
+*Verificar su existencia antes de lanzar una prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{7CBD8D65-2F59-48C1-A3DE-FAB44A0CFC9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tasa del Crédito;
+*Debe siempre estar a dos decimales.
+Eje:
+1.8 -&gt; 1.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{ED845E5D-FC8B-4AF9-AD7B-7D2F2ADD17B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Plazo en meses del crédito
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{694CE94C-4578-45A6-912C-E28E8D25E9CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Días hábiles de intereses iniciales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{970C4BCD-5021-49F5-A2EC-6A7C3C38583D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{81AD838E-CF93-40D2-A77F-C9DB770F7AA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuentos de Ley;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{7357C5D0-F025-43FB-BE7F-98540012308C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuento de nomina;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{2FCB2418-6058-44BB-8C41-7A205F622460}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{C96CF712-76F3-4115-987B-34721226C3ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{ADDB7C17-4F37-46B2-9EF9-5F316FB98F66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Crédito;
+*Se recomienda usar el primer nombre del Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{C8357492-62AC-45C7-B4A5-99255F5A9175}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{FA72E791-6C10-417C-93A4-1423D672D615}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año de nacimiento del cliente;
+*Debe estar en formato:
+DD/MM/AA
+*El mes con las primeras tres iniciales
+*El día menor a 10 debe iniciar con Cero.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{EEDF4873-6298-405B-8928-3E665A983C16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año actual.
+*Formato;
+año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{5CA3D569-BF09-4031-83F3-A0C9629D2ACE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto de la cartera que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{0E724F04-3A3B-4271-94E6-8C7A8BAF0034}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto del Saneamiento que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{0E414C70-4128-4C77-81CC-E92EC389E7C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero Celular del Cliente;
+*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{24527A24-037D-4190-8C04-DE315E98C767}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correo electrónico del Cliente;
+*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{FF900ACD-871D-4BB9-9C5A-8F261A2D4534}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de desembolso del crédito.
+*Debe coincidir con las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{F9B11496-95EC-4BCD-A4E8-2E7CCD4BC082}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha Actual
+*Formato de fecha:
+DD/MM/AA
+*Mes en formato alfabético, solo tres primeras letras, inicial en mayúscula
+*Dia menor a 10 inicia por Cero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{3B0D65D2-6C1C-40C2-9809-BA782A4F9C21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{4FBB10C4-DB2B-4554-9FA5-DF361EA118AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero de radicación de la solicitud.
+Consultarlo en base de datos.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="84">
   <si>
@@ -109,9 +3044,6 @@
     <t>"2258"</t>
   </si>
   <si>
-    <t>"1.8"</t>
-  </si>
-  <si>
     <t>NombreCredito</t>
   </si>
   <si>
@@ -290,13 +3222,16 @@
   </si>
   <si>
     <t>"03/12/2021"</t>
+  </si>
+  <si>
+    <t>"1.80"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +3254,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +3288,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,11 +3303,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
@@ -356,12 +3317,200 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -697,11 +3846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +3858,7 @@
     <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -766,16 +3915,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="Q1" t="s">
         <v>4</v>
@@ -787,92 +3936,97 @@
         <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
+      <c r="U2" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:F2">
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J2">
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{8C69726B-A170-403B-85D4-861645813F44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867155A-9367-4611-B57D-923A3BAD7224}">
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867155A-9367-4611-B57D-923A3BAD7224}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -938,22 +4092,22 @@
         <v>14</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -965,128 +4119,143 @@
         <v>6</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
+      <c r="W2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T3" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A3:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  <conditionalFormatting sqref="A1:XFD1 A4:XFD1048576 Q3:R3 W3:XFD3">
+    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:XFD2">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:U2 W2">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="Q2:R2 W2">
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A3:P3">
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F2">
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J2">
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:U3">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{6D944EE1-0455-4106-B282-823227FA6D03}"/>
+    <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{1DEB2772-B16F-498D-99D3-F8075F6E9EBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1146,125 +4315,168 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
       <c r="U1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
         <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
       <c r="U2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J2">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:N2">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{E0D8C32B-A6F8-4EF6-A36F-73FC45FA7DC0}"/>
+    <hyperlink ref="F2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{A2E15BB9-0155-4310-87D2-2FBC767C3147}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -1304,16 +4516,16 @@
         <v>15</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="Q1" t="s">
         <v>4</v>
@@ -1325,100 +4537,133 @@
         <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
       <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
+      <c r="U2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:F2">
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J2">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{D5863895-FF56-4A5B-A97A-AD0B2D0EAFB1}"/>
+    <hyperlink ref="R2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{2865A013-D7F9-467C-8AA4-D1FAFE839B57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -1458,22 +4703,22 @@
         <v>14</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -1485,96 +4730,118 @@
         <v>6</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
         <v>67</v>
       </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
         <v>69</v>
       </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T3" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2">
+  <conditionalFormatting sqref="A1:XFD1 X2:XFD2">
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:W3">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:R2 W2">
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:J2">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:G4">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{21B5F5BB-B84D-490B-A13C-0ADBD1298F3B}"/>
+    <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{0787D1B1-37C4-4BE4-9406-B1FF146ACD7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\ana.desarrollo59\Documents\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6CAFF8-C74D-4E0F-AB07-40BEC37EDBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22884F04-287F-4BA9-81A5-5129A60C8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -575,6 +575,157 @@
         </r>
       </text>
     </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{A37D49B0-89A6-4035-8531-C50855960E53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{F740A4AF-2CD8-49B0-B055-FBC38636073D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{DDE583A6-D61C-4F2D-90C9-BE29FC30CBA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{92199678-7173-4012-A34B-8C2B07EE3CC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{E1F9D26A-EEEB-4D01-B250-214CA0C9A913}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se genera el registro del Cliente.
+Fecha Actual
+*Formato;
+DD/MM/AA
+*Mes formato digital.
+*Dia menor a 10 anteponer Cero.
+*Año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{6877FF6D-2E25-44A6-9EBC-7825958A73FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero de radicación de la solicitud.
+Consultarlo en base de datos.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2973,7 +3124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
   <si>
     <t>Cedula</t>
   </si>
@@ -3101,21 +3252,12 @@
     <t>"5000000"</t>
   </si>
   <si>
-    <t>"24580532"</t>
-  </si>
-  <si>
-    <t>"78635"</t>
-  </si>
-  <si>
     <t>"8000000"</t>
   </si>
   <si>
     <t>"0"</t>
   </si>
   <si>
-    <t>"BLANCA NURY"</t>
-  </si>
-  <si>
     <t>"14/06/1969"</t>
   </si>
   <si>
@@ -3225,6 +3367,75 @@
   </si>
   <si>
     <t>"1.80"</t>
+  </si>
+  <si>
+    <t>"20000000"</t>
+  </si>
+  <si>
+    <t>"1.70"</t>
+  </si>
+  <si>
+    <t>"120"</t>
+  </si>
+  <si>
+    <t>"3204992496"</t>
+  </si>
+  <si>
+    <t>"jvcutilidades@hotmail.com"</t>
+  </si>
+  <si>
+    <t>"19/01/2022"</t>
+  </si>
+  <si>
+    <t>"30"</t>
+  </si>
+  <si>
+    <t>"03/09/1967"</t>
+  </si>
+  <si>
+    <t>FechaRegistro</t>
+  </si>
+  <si>
+    <t>NumRadicado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"'ACRED','EGRESO'" </t>
+  </si>
+  <si>
+    <t>"upper('Desembolso egreso'), upper('Desembolso activación de crédito')"</t>
+  </si>
+  <si>
+    <t>AccountingSourcePadre</t>
+  </si>
+  <si>
+    <t>AccountingNamePadre</t>
+  </si>
+  <si>
+    <t>AccountingSourceHijo</t>
+  </si>
+  <si>
+    <t>AccountingNameHijo</t>
+  </si>
+  <si>
+    <t>"upper('Retanqueo de créditos')"</t>
+  </si>
+  <si>
+    <t>19/01/2022</t>
+  </si>
+  <si>
+    <t>"'RETANQ'"</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>"74751"</t>
+  </si>
+  <si>
+    <t>"11299956"</t>
+  </si>
+  <si>
+    <t>"ÁLFREDO CARVAJAL"</t>
   </si>
 </sst>
 </file>
@@ -3308,7 +3519,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
@@ -3324,13 +3535,35 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3847,10 +4080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,18 +4099,24 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="33.140625" customWidth="1"/>
+    <col min="24" max="24" width="24.5703125" customWidth="1"/>
+    <col min="25" max="25" width="67.5703125" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3941,84 +4180,124 @@
       <c r="U1" t="s">
         <v>31</v>
       </c>
+      <c r="V1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F2">
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J2">
     <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J2">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+  <conditionalFormatting sqref="V1:AA2">
+    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{8C69726B-A170-403B-85D4-861645813F44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4127,28 +4406,28 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>20</v>
@@ -4160,28 +4439,28 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
         <v>73</v>
       </c>
-      <c r="M2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>74</v>
       </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" t="s">
-        <v>77</v>
-      </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>38</v>
@@ -4190,7 +4469,7 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
@@ -4341,13 +4620,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -4365,7 +4644,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>17</v>
@@ -4383,34 +4662,34 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R2" t="s">
         <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
         <v>28</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -4543,54 +4822,54 @@
         <v>31</v>
       </c>
       <c r="V1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
@@ -4605,13 +4884,13 @@
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4736,66 +5015,66 @@
         <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>38</v>
@@ -4804,13 +5083,13 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\ana.desarrollo59\Documents\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22884F04-287F-4BA9-81A5-5129A60C8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F812B4C8-A853-4CD0-A857-96F568C6CF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{21B08E5A-6B45-4269-9207-ECD196F8BCD2}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{3A015C19-3CC0-4138-9366-0C710DE03CF0}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E0B704B7-E349-4310-A7B4-8B013DD1A588}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EC3515F5-9680-47C9-8F92-F4C8CF501498}">
       <text>
         <r>
           <rPr>
@@ -343,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{6B673BA1-244E-44B6-958C-6EC049E9A42C}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{BB1F52AD-6BDA-4E36-A209-5C5043E7831E}">
       <text>
         <r>
           <rPr>
@@ -1833,31 +1833,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{E3E59771-6B0D-4E31-B827-6201EB56B990}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{3D122B94-6A4C-49B8-A8B8-A39C8596D0DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se genera el registro del Cliente.
 Fecha Actual
-*Formato de fecha:
+*Formato;
 DD/MM/AA
-*Mes en formato alfabético, solo tres primeras letras, inicial en mayúscula
-*Dia menor a 10 inicia por Cero</t>
+*Mes formato digital.
+*Dia menor a 10 anteponer Cero.
+*Año completo</t>
         </r>
       </text>
     </comment>
@@ -3267,18 +3269,6 @@
     <t>"3145363053"</t>
   </si>
   <si>
-    <t>"25/10/2021"</t>
-  </si>
-  <si>
-    <t>"12962960"</t>
-  </si>
-  <si>
-    <t>"FOPEP"</t>
-  </si>
-  <si>
-    <t>"ROBERTO HERNAN"</t>
-  </si>
-  <si>
     <t>NumRadicadoCredito</t>
   </si>
   <si>
@@ -3351,15 +3341,6 @@
     <t>"430000"</t>
   </si>
   <si>
-    <t>"93341535"</t>
-  </si>
-  <si>
-    <t>"83108"</t>
-  </si>
-  <si>
-    <t>"ALEXANDER"</t>
-  </si>
-  <si>
     <t>"1.60"</t>
   </si>
   <si>
@@ -3420,22 +3401,43 @@
     <t>"upper('Retanqueo de créditos')"</t>
   </si>
   <si>
-    <t>19/01/2022</t>
-  </si>
-  <si>
     <t>"'RETANQ'"</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>"74751"</t>
-  </si>
-  <si>
-    <t>"11299956"</t>
-  </si>
-  <si>
-    <t>"ÁLFREDO CARVAJAL"</t>
+    <t>"7505895"</t>
+  </si>
+  <si>
+    <t>"52975"</t>
+  </si>
+  <si>
+    <t>"Camilo"</t>
+  </si>
+  <si>
+    <t>"24/01/2022"</t>
+  </si>
+  <si>
+    <t>"Bancolombia Remanentes - 60237038927 - REMANENTE"</t>
+  </si>
+  <si>
+    <t>"25/01/2022"</t>
+  </si>
+  <si>
+    <t>"400000"</t>
+  </si>
+  <si>
+    <t>"600000"</t>
+  </si>
+  <si>
+    <t>"P.A COLPENSIONES"</t>
+  </si>
+  <si>
+    <t>"10157598"</t>
+  </si>
+  <si>
+    <t>"AMADEO"</t>
   </si>
 </sst>
 </file>
@@ -4082,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,51 +4183,51 @@
         <v>31</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>21</v>
@@ -4237,49 +4239,49 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867155A-9367-4611-B57D-923A3BAD7224}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4406,28 +4410,28 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>20</v>
@@ -4439,25 +4443,25 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
         <v>46</v>
@@ -4469,7 +4473,7 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
@@ -4513,9 +4517,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4620,13 +4626,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -4644,7 +4650,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>17</v>
@@ -4662,16 +4668,16 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
         <v>44</v>
@@ -4679,43 +4685,31 @@
       <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" t="s">
-        <v>47</v>
+      <c r="U2" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="I2:J2">
     <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J2">
+  <conditionalFormatting sqref="K2:N2">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:N2">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="U2">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{A2E15BB9-0155-4310-87D2-2FBC767C3147}"/>
@@ -4822,39 +4816,39 @@
         <v>31</v>
       </c>
       <c r="V1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
         <v>43</v>
@@ -4863,7 +4857,7 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -4890,7 +4884,7 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +5009,7 @@
         <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -5023,40 +5017,40 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -5068,13 +5062,13 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>38</v>
@@ -5083,13 +5077,13 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\ana.desarrollo59\Documents\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22884F04-287F-4BA9-81A5-5129A60C8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56DE76C-99D9-41C9-9C98-A8DDE0B26E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{21B08E5A-6B45-4269-9207-ECD196F8BCD2}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{3A015C19-3CC0-4138-9366-0C710DE03CF0}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E0B704B7-E349-4310-A7B4-8B013DD1A588}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EC3515F5-9680-47C9-8F92-F4C8CF501498}">
       <text>
         <r>
           <rPr>
@@ -343,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{6B673BA1-244E-44B6-958C-6EC049E9A42C}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{BB1F52AD-6BDA-4E36-A209-5C5043E7831E}">
       <text>
         <r>
           <rPr>
@@ -1833,31 +1833,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{E3E59771-6B0D-4E31-B827-6201EB56B990}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{3D122B94-6A4C-49B8-A8B8-A39C8596D0DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se genera el registro del Cliente.
 Fecha Actual
-*Formato de fecha:
+*Formato;
 DD/MM/AA
-*Mes en formato alfabético, solo tres primeras letras, inicial en mayúscula
-*Dia menor a 10 inicia por Cero</t>
+*Mes formato digital.
+*Dia menor a 10 anteponer Cero.
+*Año completo</t>
         </r>
       </text>
     </comment>
@@ -1932,6 +1934,110 @@
           <t xml:space="preserve">
 Monto del Saneamiento que se va a recoger;
 *No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{D7194442-9A4A-4145-B7A0-D80CA6E92F4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{9C5E7FBC-409D-40E7-AED5-5945C41A6D18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{78480628-1E1A-4E4C-9099-1438A7A9F5A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{995885CC-2A77-4317-B13A-66EC69C04D39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mes en el cual se va a lanzar la Originación;
+*Siempre mes Actual
+*Mes Escrito Completo</t>
         </r>
       </text>
     </comment>
@@ -3124,7 +3230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="106">
   <si>
     <t>Cedula</t>
   </si>
@@ -3249,9 +3355,6 @@
     <t>"3125117715"</t>
   </si>
   <si>
-    <t>"5000000"</t>
-  </si>
-  <si>
     <t>"8000000"</t>
   </si>
   <si>
@@ -3267,18 +3370,6 @@
     <t>"3145363053"</t>
   </si>
   <si>
-    <t>"25/10/2021"</t>
-  </si>
-  <si>
-    <t>"12962960"</t>
-  </si>
-  <si>
-    <t>"FOPEP"</t>
-  </si>
-  <si>
-    <t>"ROBERTO HERNAN"</t>
-  </si>
-  <si>
     <t>NumRadicadoCredito</t>
   </si>
   <si>
@@ -3351,15 +3442,6 @@
     <t>"430000"</t>
   </si>
   <si>
-    <t>"93341535"</t>
-  </si>
-  <si>
-    <t>"83108"</t>
-  </si>
-  <si>
-    <t>"ALEXANDER"</t>
-  </si>
-  <si>
     <t>"1.60"</t>
   </si>
   <si>
@@ -3420,22 +3502,52 @@
     <t>"upper('Retanqueo de créditos')"</t>
   </si>
   <si>
-    <t>19/01/2022</t>
-  </si>
-  <si>
     <t>"'RETANQ'"</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>"74751"</t>
-  </si>
-  <si>
-    <t>"11299956"</t>
-  </si>
-  <si>
-    <t>"ÁLFREDO CARVAJAL"</t>
+    <t>"7505895"</t>
+  </si>
+  <si>
+    <t>"52975"</t>
+  </si>
+  <si>
+    <t>"Camilo"</t>
+  </si>
+  <si>
+    <t>"24/01/2022"</t>
+  </si>
+  <si>
+    <t>"Bancolombia Remanentes - 60237038927 - REMANENTE"</t>
+  </si>
+  <si>
+    <t>"P.A COLPENSIONES"</t>
+  </si>
+  <si>
+    <t>"'upper('Desembolso egreso'), upper('Desembolso activación de crédito')'"</t>
+  </si>
+  <si>
+    <t>"'ACRED','EGRESO'''</t>
+  </si>
+  <si>
+    <t>"01/02/2022"</t>
+  </si>
+  <si>
+    <t>"10000000"</t>
+  </si>
+  <si>
+    <t>"10160945"</t>
+  </si>
+  <si>
+    <t>"Orlando"</t>
+  </si>
+  <si>
+    <t>"08/07/1952"</t>
+  </si>
+  <si>
+    <t>"Febrero"</t>
   </si>
 </sst>
 </file>
@@ -3519,7 +3631,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
@@ -3547,6 +3659,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4082,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,105 +4294,105 @@
         <v>31</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="X2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867155A-9367-4611-B57D-923A3BAD7224}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4406,28 +4521,28 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>20</v>
@@ -4439,28 +4554,28 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>38</v>
@@ -4469,7 +4584,7 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
@@ -4513,9 +4628,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4542,9 +4659,10 @@
     <col min="22" max="22" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4617,16 +4735,34 @@
       <c r="X1" t="s">
         <v>36</v>
       </c>
+      <c r="Y1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -4644,7 +4780,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>17</v>
@@ -4662,60 +4798,66 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="I2:J2">
     <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J2">
+  <conditionalFormatting sqref="K2:N2">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:N2">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="U2">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{A2E15BB9-0155-4310-87D2-2FBC767C3147}"/>
@@ -4822,54 +4964,54 @@
         <v>31</v>
       </c>
       <c r="V1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
@@ -4884,13 +5026,13 @@
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5015,66 +5157,66 @@
         <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
         <v>59</v>
-      </c>
-      <c r="S2" t="s">
-        <v>64</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>38</v>
@@ -5083,13 +5225,13 @@
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56DE76C-99D9-41C9-9C98-A8DDE0B26E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EFD6F-5294-43B3-8D01-45F80679F36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -3230,7 +3230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="107">
   <si>
     <t>Cedula</t>
   </si>
@@ -3451,30 +3451,15 @@
     <t>"1.80"</t>
   </si>
   <si>
-    <t>"20000000"</t>
-  </si>
-  <si>
     <t>"1.70"</t>
   </si>
   <si>
     <t>"120"</t>
   </si>
   <si>
-    <t>"3204992496"</t>
-  </si>
-  <si>
-    <t>"jvcutilidades@hotmail.com"</t>
-  </si>
-  <si>
-    <t>"19/01/2022"</t>
-  </si>
-  <si>
     <t>"30"</t>
   </si>
   <si>
-    <t>"03/09/1967"</t>
-  </si>
-  <si>
     <t>FechaRegistro</t>
   </si>
   <si>
@@ -3517,15 +3502,9 @@
     <t>"Camilo"</t>
   </si>
   <si>
-    <t>"24/01/2022"</t>
-  </si>
-  <si>
     <t>"Bancolombia Remanentes - 60237038927 - REMANENTE"</t>
   </si>
   <si>
-    <t>"P.A COLPENSIONES"</t>
-  </si>
-  <si>
     <t>"'upper('Desembolso egreso'), upper('Desembolso activación de crédito')'"</t>
   </si>
   <si>
@@ -3535,19 +3514,43 @@
     <t>"01/02/2022"</t>
   </si>
   <si>
-    <t>"10000000"</t>
-  </si>
-  <si>
-    <t>"10160945"</t>
-  </si>
-  <si>
-    <t>"Orlando"</t>
-  </si>
-  <si>
-    <t>"08/07/1952"</t>
-  </si>
-  <si>
     <t>"Febrero"</t>
+  </si>
+  <si>
+    <t>"5000000"</t>
+  </si>
+  <si>
+    <t>"JOSE ALBEIRO"</t>
+  </si>
+  <si>
+    <t>"10112372"</t>
+  </si>
+  <si>
+    <t>"P.A. FIDUPREVISORA NÓMINA PENSIONADOS FOMAG"</t>
+  </si>
+  <si>
+    <t>"20/07/1963"</t>
+  </si>
+  <si>
+    <t>"aalvarez@excelcredit.co"</t>
+  </si>
+  <si>
+    <t>"05/05/1945"</t>
+  </si>
+  <si>
+    <t>"3183903022"</t>
+  </si>
+  <si>
+    <t>"13951080"</t>
+  </si>
+  <si>
+    <t>"56530"</t>
+  </si>
+  <si>
+    <t>"07/02/2022"</t>
+  </si>
+  <si>
+    <t>"HERNANDO"</t>
   </si>
 </sst>
 </file>
@@ -4195,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4294,45 +4297,45 @@
         <v>31</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>19</v>
@@ -4350,49 +4353,49 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" t="s">
         <v>94</v>
       </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="P2" t="s">
         <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
       </c>
       <c r="T2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="Y2" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4524,10 +4527,10 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -4557,7 +4560,7 @@
         <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
         <v>66</v>
@@ -4630,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,6 +4663,7 @@
     <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -4736,33 +4740,33 @@
         <v>36</v>
       </c>
       <c r="Y1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AA1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AC1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AD1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -4804,22 +4808,22 @@
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="T2" t="s">
         <v>67</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W2" t="s">
         <v>42</v>
@@ -4828,22 +4832,22 @@
         <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AA2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AC2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AD2" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EFD6F-5294-43B3-8D01-45F80679F36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6050CCF4-F5A9-49C1-8E2B-8654367EE9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -3520,18 +3520,6 @@
     <t>"5000000"</t>
   </si>
   <si>
-    <t>"JOSE ALBEIRO"</t>
-  </si>
-  <si>
-    <t>"10112372"</t>
-  </si>
-  <si>
-    <t>"P.A. FIDUPREVISORA NÓMINA PENSIONADOS FOMAG"</t>
-  </si>
-  <si>
-    <t>"20/07/1963"</t>
-  </si>
-  <si>
     <t>"aalvarez@excelcredit.co"</t>
   </si>
   <si>
@@ -3551,6 +3539,18 @@
   </si>
   <si>
     <t>"HERNANDO"</t>
+  </si>
+  <si>
+    <t>"P.A COLPENSIONES"</t>
+  </si>
+  <si>
+    <t>"12960211"</t>
+  </si>
+  <si>
+    <t>"GERARDO BENJAMIN"</t>
+  </si>
+  <si>
+    <t>"05/03/2022"</t>
   </si>
 </sst>
 </file>
@@ -4198,7 +4198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -4320,10 +4320,10 @@
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -4353,28 +4353,28 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
         <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
         <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>90</v>
@@ -4392,7 +4392,7 @@
         <v>79</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>86</v>
@@ -4633,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -4784,7 +4784,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>17</v>
@@ -4808,13 +4808,13 @@
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="R2" t="s">
         <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T2" t="s">
         <v>67</v>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThainerPerez\Repositorios\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6050CCF4-F5A9-49C1-8E2B-8654367EE9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A9FEA-A177-484F-BBDF-E6529A54F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -3230,7 +3230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
   <si>
     <t>Cedula</t>
   </si>
@@ -3529,18 +3529,9 @@
     <t>"3183903022"</t>
   </si>
   <si>
-    <t>"13951080"</t>
-  </si>
-  <si>
-    <t>"56530"</t>
-  </si>
-  <si>
     <t>"07/02/2022"</t>
   </si>
   <si>
-    <t>"HERNANDO"</t>
-  </si>
-  <si>
     <t>"P.A COLPENSIONES"</t>
   </si>
   <si>
@@ -3551,6 +3542,18 @@
   </si>
   <si>
     <t>"05/03/2022"</t>
+  </si>
+  <si>
+    <t>"79796"</t>
+  </si>
+  <si>
+    <t>"7425570"</t>
+  </si>
+  <si>
+    <t>"MARIO"</t>
+  </si>
+  <si>
+    <t>"Julio"</t>
   </si>
 </sst>
 </file>
@@ -4198,8 +4201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,10 +4323,10 @@
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -4347,16 +4350,16 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
         <v>97</v>
@@ -4374,7 +4377,7 @@
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>90</v>
@@ -4392,7 +4395,7 @@
         <v>79</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>86</v>
@@ -4633,7 +4636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C6080-F6C9-4628-AA63-104D0AFEE608}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -4760,13 +4763,13 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -4808,13 +4811,13 @@
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R2" t="s">
         <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T2" t="s">
         <v>67</v>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EFD6F-5294-43B3-8D01-45F80679F36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19939DB2-BEDD-47F1-A97F-EB11C8EDBCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -3541,13 +3541,13 @@
     <t>"3183903022"</t>
   </si>
   <si>
+    <t>"07/02/2022"</t>
+  </si>
+  <si>
+    <t>"63275"</t>
+  </si>
+  <si>
     <t>"13951080"</t>
-  </si>
-  <si>
-    <t>"56530"</t>
-  </si>
-  <si>
-    <t>"07/02/2022"</t>
   </si>
   <si>
     <t>"HERNANDO"</t>
@@ -4199,7 +4199,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,7 +4320,7 @@
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>104</v>
@@ -4374,7 +4374,7 @@
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>90</v>
@@ -4392,7 +4392,7 @@
         <v>79</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>86</v>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19939DB2-BEDD-47F1-A97F-EB11C8EDBCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0AAD0-ABC1-4A41-BAC2-CABA9844EBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -3230,7 +3230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="109">
   <si>
     <t>Cedula</t>
   </si>
@@ -3451,15 +3451,9 @@
     <t>"1.80"</t>
   </si>
   <si>
-    <t>"1.70"</t>
-  </si>
-  <si>
     <t>"120"</t>
   </si>
   <si>
-    <t>"30"</t>
-  </si>
-  <si>
     <t>FechaRegistro</t>
   </si>
   <si>
@@ -3541,16 +3535,28 @@
     <t>"3183903022"</t>
   </si>
   <si>
-    <t>"07/02/2022"</t>
-  </si>
-  <si>
-    <t>"63275"</t>
-  </si>
-  <si>
-    <t>"13951080"</t>
-  </si>
-  <si>
-    <t>"HERNANDO"</t>
+    <t>"03/03/2022"</t>
+  </si>
+  <si>
+    <t>"99509"</t>
+  </si>
+  <si>
+    <t>"1.71"</t>
+  </si>
+  <si>
+    <t>"Marzo"</t>
+  </si>
+  <si>
+    <t>"7255282"</t>
+  </si>
+  <si>
+    <t>"2036000"</t>
+  </si>
+  <si>
+    <t>"871228"</t>
+  </si>
+  <si>
+    <t>"JAIVER"</t>
   </si>
 </sst>
 </file>
@@ -4199,7 +4205,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4297,54 +4303,54 @@
         <v>31</v>
       </c>
       <c r="V1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="Z1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
         <v>42</v>
@@ -4353,49 +4359,49 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
         <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4527,10 +4533,10 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -4560,7 +4566,7 @@
         <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
         <v>66</v>
@@ -4740,33 +4746,33 @@
         <v>36</v>
       </c>
       <c r="Y1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>83</v>
-      </c>
       <c r="AC1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -4808,22 +4814,22 @@
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T2" t="s">
         <v>67</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W2" t="s">
         <v>42</v>
@@ -4832,22 +4838,22 @@
         <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0AAD0-ABC1-4A41-BAC2-CABA9844EBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF3330-3A36-4697-8E3B-F8458857E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -2051,107 +2051,56 @@
     <author>Analista Desarrollo59</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{353F3E1F-10A9-416C-BA04-CA56660A6A42}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Monto solicitado para el Retanqueo;
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E4ED8629-174B-4039-9FE6-0588DB722671}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre de la pagaduría, debe estar escrita tal cual en Base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{4D797E19-0C2D-4146-84C7-659901EB9E62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cedula del cliente;
 *No debe contener puntos ni comas</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{3B2E6665-1161-465A-9919-593F8BAB7E3C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Cedula del cliente
-*No debe contener puntos ni comas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{8E41B866-9CE8-4640-B73E-8B44B5AD4B1E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Numero indentificador de el credito al cual posteriormente se va a realizar un Retanqueo.
-Es importante verificar el estado del credito en curso por consulta a base de datos.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{FAAB58F7-2414-4FB4-BBF5-29FDA7D477B8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
-*Verificar su existencia antes de lanzar una prueba</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{FA5C9D60-25CB-4BB4-A0AD-96AE93E4AAAD}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{822EA1E7-9FD8-418D-933A-463B4B7948EE}">
       <text>
         <r>
           <rPr>
@@ -2178,7 +2127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{2E867ECB-FAEE-4CBD-BEE2-8699EA0BBCDA}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{53914066-8574-4B38-BAD0-964876228489}">
       <text>
         <r>
           <rPr>
@@ -2203,7 +2152,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{032BD7F8-3C3A-4344-B16E-125B29DAD5C3}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{3C42F427-5CB6-4CC3-BEEE-CBB407DB3B68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto solicitado para el crédito;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{FB765F78-A981-4292-88E1-55F8FCCD6C8B}">
       <text>
         <r>
           <rPr>
@@ -2227,7 +2201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{7E174531-6A3D-43A8-B567-B35388F0CB42}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{166D82CE-F387-41ED-9276-0CA0B028BC74}">
       <text>
         <r>
           <rPr>
@@ -2252,32 +2226,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{6EF5609D-2001-453E-BF65-2782D1F7FDE3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Descuentos de Ley;
-*Sin puntos ni comas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{BB0A46B0-97B9-41AB-A021-35650472F611}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{C1B7A359-F800-4118-9940-268ACBC14B52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{6EDF2EBF-F621-44D2-8B31-AD4CD1E29322}">
       <text>
         <r>
           <rPr>
@@ -2302,81 +2276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{82A33A78-212A-4894-B97B-E45C19C6A9F3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
-*Sin puntos ni comas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{58B2DE73-4167-44E9-8394-54CFC916176C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Consultar usos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{0C88D942-5E6C-41CA-B59E-90433CA52587}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nombre del Crédito;
-*Se recomienda usar el primer nombre del Cliente</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{6436F56C-283A-421F-B57C-EF65D7B89BF2}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{68BAF439-D73D-4150-A39E-62991E293A39}">
       <text>
         <r>
           <rPr>
@@ -2402,136 +2302,136 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{17FCF534-CF3F-4B1A-9339-160EB5253042}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Año de nacimiento del cliente;
-*Debe estar en formato:
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{02746F8A-C3F5-45F3-93DA-98EF39966AC9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se hará el desembolso del Crédito;
+*Formato de fecha:
 DD/MM/AA
-*El mes con las primeras tres iniciales
-*El día menor a 10 debe iniciar con Cero.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{E8990F3C-3B52-46EC-95CA-170CD77F6A3F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Año actual.
-*Formato;
-año completo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{6676205E-1F42-4D8B-98D5-4AED787CF364}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Numero Celular del Cliente;
-*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{15271C4F-3097-477B-8723-61C833CA4110}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Correo electrónico del Cliente;
-*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{BB929CF6-70A6-464E-ABDC-F7BF277E256C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Tipo de desembolso del crédito.
-*Debe coincidir con las opciones del sistema</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{2420F73B-7320-453B-8168-FD47943D43D8}">
+*Mes en formato numérico
+*Dia menor a 10 inicia por Cero
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{A468FC59-3ADF-4023-B02D-1D5D809D8C71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Crédito;
+*Se recomienda usar el primer nombre del Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{F6DB615E-AF1E-42BA-90D8-EF2ED17E1972}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Segundo nombre del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{BC954811-EEE0-44CA-AC28-87BC75A6867B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer Apellido del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{737A99C1-7808-4155-92DF-AE5120CA9AED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Segundo Apellido del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{850BEDAF-3834-4959-9DA8-9E24C7AE2159}">
       <text>
         <r>
           <rPr>
@@ -2559,7 +2459,516 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{24E3F299-F892-40D3-ABE6-F560D3489C0F}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{130BD80A-63DE-4F6C-B6DE-944C0473A06C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Oficina en que se solicita el crédito;
+*Debe estar escrita tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{04DB73DF-0423-427B-91DB-2010FFA37117}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Actividad del Cliente;
+*Debe ser una de las opciones disponibles en base de datos
+*Debe estar escrito tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{F9397390-0E96-4835-B2C5-667A655ECA8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Total suma de activos del Cliente;
+*No debe contener ni puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{91DCB894-CF83-476A-9E70-370EB18EB343}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{CD3CB668-DE36-4A46-A9AF-AB85A98B0325}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de contrato del Cliente;
+*Tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{15BA5373-F06A-445C-828A-13D5B4B0BECB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la que el Cliente inicio el tipo de contrato;
+*Formato de Fecha;
+DD/MM/AA
+*Mes en dígitos
+*Año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{8133A490-4E43-4C30-8E36-FB65B3EB4E63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correo electrónico del Cliente;
+*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{034CAC36-AEE0-4996-8D0D-EEDEBE9C24FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero Celular del Cliente;
+*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{6133D2D2-32B9-4E95-AA1C-FD35486ED2A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Departamento en que reside el Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{1CF522BB-9080-43EE-A619-D3B142C51ECE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ciudad en que reside el Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{5DA186F9-FA80-4E45-BBA2-A93E653907A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
+*Verificar su existencia antes de lanzar una prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{A8B60853-895A-47A6-93B8-5400A7882F41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Destino que se le dará al crédito solicitado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{59EE264F-C8F4-41FB-A5B0-BF2004BD620F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Genero del Cliente;
+*Formato, una sola letra;
+M -&gt; Masculino
+F -&gt; Femenino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{775DF0B9-6B53-4498-88A3-48BA11A83C9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado civil del Cliente;
+*Según las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{DB474DA8-D0E7-4CE5-B501-552B0D854819}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dirección de residencia del Cliente;
+*Formato: Libre</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{7F86780C-646A-4BB2-862A-1970231EDD3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de vivienda en la que habita el solicitante;
+*Formato;
+Según las opciones disponibles del sistema
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{A46A7EBE-56A3-4A4D-BB18-3D16F3DAD00E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer Apellido de la referencia del solicitante.
+*Formato;
+todo minúsculas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{CA336716-D112-4087-A8DB-FBD782800C35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer nombre de la referencia del solicitante.
+*Formato;
+todo minúsculas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{599F219F-6D2E-4319-9CCC-FF27911D6440}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero telefónico fijo de la referencia del solicitante.
+*Formato;
+Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{D1DB1F8B-9C37-4C7C-B73F-65106C03BD09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero telefónico de la referencia del solicitante.
+*Formato;
+Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{6EC61D2E-215D-4DFF-805B-F8604415D042}">
       <text>
         <r>
           <rPr>
@@ -2583,28 +2992,206 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{56800A1E-CD51-4106-AD9F-E80AF4C53521}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Numero de radicación de la solicitud.
-Consultarlo en base de datos.</t>
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{D7ABE9A6-4444-4F79-B249-1629799E88AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año actual.
+*Formato;
+año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{6952CCD5-7F56-4C9F-BF2A-571B8BF78802}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de desembolso del crédito.
+*Debe coincidir con las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN2" authorId="0" shapeId="0" xr:uid="{11E6E817-5AAD-4B9E-9A3E-76A1E2BC8F74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO2" authorId="0" shapeId="0" xr:uid="{21D1900D-E51D-40AA-91CD-5E7D260AAF52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{C7E0B8A8-5375-4A4A-8EE3-500702B85F66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{0A2C420A-DFF9-4635-BF2D-EBCA3B4FB47C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se genera el registro del Cliente.
+Fecha Actual
+*Formato;
+DD/MM/AA
+*Mes formato digital.
+*Dia menor a 10 anteponer Cero.
+*Año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{B7989AF1-1925-45CE-9D3E-895280484608}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto de la primera cartera que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{F207071E-B664-43DC-9236-843B65BD380E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto del Saneamiento que se va a recoger;
+*No debe tener puntos ni comas</t>
         </r>
       </text>
     </comment>
@@ -2618,107 +3205,56 @@
     <author>Analista Desarrollo59</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{59A1EB8B-D59C-4898-B649-AF7155B9928B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Monto solicitado para el Retanqueo;
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2BFBF2F8-68F0-43AF-B40E-0208DECAC83A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre de la pagaduría, debe estar escrita tal cual en Base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B9825CC2-A720-48AD-9CA2-96008A31FB4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cedula del cliente;
 *No debe contener puntos ni comas</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{5361033C-86CC-4589-911F-A6E415423457}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Cedula del cliente
-*No debe contener puntos ni comas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F6D934E5-5668-433E-8C78-D69834BA0EC4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Numero indentificador de el credito al cual posteriormente se va a realizar un Retanqueo.
-Es importante verificar el estado del credito en curso por consulta a base de datos.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{B65331B1-0221-4698-A9FC-0F5AECF04779}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
-*Verificar su existencia antes de lanzar una prueba</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{7CBD8D65-2F59-48C1-A3DE-FAB44A0CFC9D}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2E67BFC6-F3DB-4BF1-8C82-CD7E38E7F898}">
       <text>
         <r>
           <rPr>
@@ -2745,7 +3281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{ED845E5D-FC8B-4AF9-AD7B-7D2F2ADD17B3}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5691D90A-8AC8-43C5-9E98-E478B520498D}">
       <text>
         <r>
           <rPr>
@@ -2770,7 +3306,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{694CE94C-4578-45A6-912C-E28E8D25E9CF}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{3459040A-45D0-4DD8-8AD7-680FDED7E761}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto solicitado para el crédito;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{3E1AC268-8588-45C1-BFD8-51CF3C61525F}">
       <text>
         <r>
           <rPr>
@@ -2794,7 +3355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{970C4BCD-5021-49F5-A2EC-6A7C3C38583D}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{84E10093-94C7-4E86-BF1D-CF2C0765CC96}">
       <text>
         <r>
           <rPr>
@@ -2819,32 +3380,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{81AD838E-CF93-40D2-A77F-C9DB770F7AA9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Descuentos de Ley;
-*Sin puntos ni comas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{7357C5D0-F025-43FB-BE7F-98540012308C}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3AB57B28-FCBE-47B2-A462-23A3EDDC85A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingresos del cliente;
+*Debe estar sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{201D07C0-B41B-4DF6-82B3-E7BCF22A1020}">
       <text>
         <r>
           <rPr>
@@ -2869,81 +3430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{2FCB2418-6058-44BB-8C41-7A205F622460}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Consultar usos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{C96CF712-76F3-4115-987B-34721226C3ED}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
-*Sin puntos ni comas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{ADDB7C17-4F37-46B2-9EF9-5F316FB98F66}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nombre del Crédito;
-*Se recomienda usar el primer nombre del Cliente</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{C8357492-62AC-45C7-B4A5-99255F5A9175}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{67DED166-575A-4D57-B012-9D285A78EC1B}">
       <text>
         <r>
           <rPr>
@@ -2969,186 +3456,136 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{FA72E791-6C10-417C-93A4-1423D672D615}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Año de nacimiento del cliente;
-*Debe estar en formato:
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{F54E1252-37BD-4C4F-9A6A-2BD70413184D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se hará el desembolso del Crédito;
+*Formato de fecha:
 DD/MM/AA
-*El mes con las primeras tres iniciales
-*El día menor a 10 debe iniciar con Cero.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{EEDF4873-6298-405B-8928-3E665A983C16}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Año actual.
-*Formato;
-año completo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{5CA3D569-BF09-4031-83F3-A0C9629D2ACE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Monto de la cartera que se va a recoger;
-*No debe tener puntos ni comas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{0E724F04-3A3B-4271-94E6-8C7A8BAF0034}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Monto del Saneamiento que se va a recoger;
-*No debe tener puntos ni comas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{0E414C70-4128-4C77-81CC-E92EC389E7C6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Numero Celular del Cliente;
-*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{24527A24-037D-4190-8C04-DE315E98C767}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Correo electrónico del Cliente;
-*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{FF900ACD-871D-4BB9-9C5A-8F261A2D4534}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Tipo de desembolso del crédito.
-*Debe coincidir con las opciones del sistema</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{F9B11496-95EC-4BCD-A4E8-2E7CCD4BC082}">
+*Mes en formato numérico
+*Dia menor a 10 inicia por Cero
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{D7B3A403-47EE-4B65-8ECA-34C25D213EFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nombre del Crédito;
+*Se recomienda usar el primer nombre del Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{7206A561-3EBF-4ADD-9FF8-7C9FA89E678E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Segundo nombre del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{AD9D6910-44C1-4BFA-80D3-5D9BDF0BD0C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer Apellido del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{E3A5B7A7-B915-40C3-825B-D3D41088B221}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Segundo Apellido del Cliente;
+*Completo en mayúscula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{F6B3E799-E8B4-491A-A2A4-E8BB2FA8EA9B}">
       <text>
         <r>
           <rPr>
@@ -3176,7 +3613,516 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{3B0D65D2-6C1C-40C2-9809-BA782A4F9C21}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{DB4D24B2-EFC6-46A8-A14A-AEDCEF1B20ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Oficina en que se solicita el crédito;
+*Debe estar escrita tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{651A0592-A231-4C90-B5E3-64844C4D7FD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Actividad del Cliente;
+*Debe ser una de las opciones disponibles en base de datos
+*Debe estar escrito tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{9B5E2F70-61BF-437D-8D32-E46FD857165A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Total suma de activos del Cliente;
+*No debe contener ni puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{5D6CD007-EB6E-4640-AF4B-16F40DE04C5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor total por la suma de las compras y saneamientos que se le van a recoger al cliente;
+*Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{66C12613-81C8-49C6-A9BF-AA49198E20FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de contrato del Cliente;
+*Tal cual en base de datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{45E7F03D-1B8D-4579-B8DF-3591B11E0EED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la que el Cliente inicio el tipo de contrato;
+*Formato de Fecha;
+DD/MM/AA
+*Mes en dígitos
+*Año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{CCA169F4-1BF4-43A0-BE4A-E2E6AEECCBF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correo electrónico del Cliente;
+*Para pruebas automatizadas cambiar el correo desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{C9594177-94E8-4684-9BC4-00950819E874}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero Celular del Cliente;
+*Para pruebas automatizadas cambiar el celular desde bases de datos por uno de prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{72DFBA3C-11B1-4359-BDD2-B200E5B1211D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Departamento en que reside el Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{66AFCC9F-58B3-4796-B8D0-83FDD0390E98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ciudad en que reside el Cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{1CEA1F91-C452-479E-95B3-2AC532BB94B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruta o Path en la cual se almacena el PDF para pruebas de carga de documentos;
+*Verificar su existencia antes de lanzar una prueba</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{86F0E95C-0719-4C9F-B042-5DFC4F65728C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Destino que se le dará al crédito solicitado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{830BE089-0FD2-4821-89B8-4433F374D944}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Genero del Cliente;
+*Formato, una sola letra;
+M -&gt; Masculino
+F -&gt; Femenino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{C00C2A3F-61B3-48D3-8BFB-647DFA05DF0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Estado civil del Cliente;
+*Según las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{6CA4A338-CE9C-4E40-928E-AE272F0FC5AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dirección de residencia del Cliente;
+*Formato: Libre</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{A2A4E285-3B16-46DB-8D38-A75FED561F31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de vivienda en la que habita el solicitante;
+*Formato;
+Según las opciones disponibles del sistema
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{A6F5C9B7-F0CC-4E7F-9863-D91928306013}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer Apellido de la referencia del solicitante.
+*Formato;
+todo minúsculas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{2BD0EBDB-2979-4AF6-AC80-67B38E83CD1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Primer nombre de la referencia del solicitante.
+*Formato;
+todo minúsculas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{BEE026B9-8822-489C-AB19-3ACDB3A92731}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero telefónico fijo de la referencia del solicitante.
+*Formato;
+Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{4DBC6FD7-4849-4AF3-9FE7-FC88F0FA290F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero telefónico de la referencia del solicitante.
+*Formato;
+Sin puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{2330811B-167D-4488-A277-E9A76A14B261}">
       <text>
         <r>
           <rPr>
@@ -3200,28 +4146,206 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{4FBB10C4-DB2B-4554-9FA5-DF361EA118AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Analista Desarrollo59:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Numero de radicación de la solicitud.
-Consultarlo en base de datos.</t>
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{74C1BAEA-2CD7-4CE3-9A80-A40BB622750C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Año actual.
+*Formato;
+año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{7C174C08-695F-4FC9-B961-6DF31525DB4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de desembolso del crédito.
+*Debe coincidir con las opciones del sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN2" authorId="0" shapeId="0" xr:uid="{C7F0413D-3C06-48EC-851D-7E3F8D4B35E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO2" authorId="0" shapeId="0" xr:uid="{FE843254-BDD6-4052-B029-C72B38852B0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{A81046B3-CBE3-4CD6-8EA1-E2F3132DB6F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar usos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{E3455D6B-4CB9-4D7D-AF5F-223586D8734A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha en la cual se genera el registro del Cliente.
+Fecha Actual
+*Formato;
+DD/MM/AA
+*Mes formato digital.
+*Dia menor a 10 anteponer Cero.
+*Año completo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{89B4D1FF-711C-41DE-BBCC-F80FC54F309B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto de la primera cartera que se va a recoger;
+*No debe tener puntos ni comas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{64BA9368-BCF4-4FCE-9869-EF13938EFFD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Analista Desarrollo59:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Monto del Saneamiento que se va a recoger;
+*No debe tener puntos ni comas</t>
         </r>
       </text>
     </comment>
@@ -3230,7 +4354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="299">
   <si>
     <t>Cedula</t>
   </si>
@@ -3313,15 +4437,9 @@
     <t>AnnoAfetacion</t>
   </si>
   <si>
-    <t>"Octubre"</t>
-  </si>
-  <si>
     <t>"2021"</t>
   </si>
   <si>
-    <t>"3115128152"</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Efectivo" </t>
   </si>
   <si>
@@ -3355,69 +4473,24 @@
     <t>"3125117715"</t>
   </si>
   <si>
-    <t>"8000000"</t>
-  </si>
-  <si>
     <t>"0"</t>
   </si>
   <si>
     <t>"14/06/1969"</t>
   </si>
   <si>
-    <t>"20/10/2021"</t>
-  </si>
-  <si>
     <t>"3145363053"</t>
   </si>
   <si>
-    <t>NumRadicadoCredito</t>
-  </si>
-  <si>
-    <t>"86292"</t>
-  </si>
-  <si>
-    <t>"OSCAR"</t>
-  </si>
-  <si>
-    <t>"7500000"</t>
-  </si>
-  <si>
-    <t>"10092369"</t>
-  </si>
-  <si>
-    <t>"68003"</t>
-  </si>
-  <si>
     <t>"50"</t>
   </si>
   <si>
-    <t>"8700000"</t>
-  </si>
-  <si>
     <t>"250000"</t>
   </si>
   <si>
     <t>"300000"</t>
   </si>
   <si>
-    <t>"134950"</t>
-  </si>
-  <si>
-    <t>"200000"</t>
-  </si>
-  <si>
-    <t>"450000"</t>
-  </si>
-  <si>
-    <t>"3228483385"</t>
-  </si>
-  <si>
-    <t>"25/11/2021"</t>
-  </si>
-  <si>
-    <t>"86318"</t>
-  </si>
-  <si>
     <t>"6000000"</t>
   </si>
   <si>
@@ -3557,13 +4630,637 @@
   </si>
   <si>
     <t>"JAIVER"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pagaduria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cedula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plazo </t>
+  </si>
+  <si>
+    <t>montoSolicitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DiasHabilesIntereses </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ingresos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> descLey  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> descNomina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mes      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaDesembolso </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> primerNombre </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> segundoNombre </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> primerApellido </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> segundoApellido </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaActual   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> oficinaAsesor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actividad    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TotalActivos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vlrCompasSaneamientos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TipoContrato </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FechaIngreso </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Celular      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> departamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ciudad      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rutaPDF                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DestinoCredito     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> genero </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EstadoCivil </t>
+  </si>
+  <si>
+    <t>direccionResidencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TipoVivienda </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PapellidoReferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PnombreReferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TelefonoResidencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TelefonoTrabajo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AnoAnalisis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TipoDesen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Banco                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AccountingSource   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AccountingName                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FechaRegistro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cartera1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saneamiento2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Credito </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nombresApellidos           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaNacimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contacto                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lineaCredito                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> estadoActual </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> codigo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaExpedicion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> estrado     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> claseVivienda </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> posicionHogar   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nivelEscolaridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cuotaHipotecaria </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoDocNomina            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> otrosIngresos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modalidadDesembolso      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoCliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paisNacimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lugarDeNacimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nacionalidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> profesion   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mesesResidencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numeroHijos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> personasACargo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoPension </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> codigoProgramaNomina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaTerminacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nitAfiliacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoDocumento           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cargo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nombreBeneficario    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> documentoBeneficiario </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> celularBeneficiario </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> monedaExtranjera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoTransanccion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> productoBancario </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banco       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numProducto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tipoProducto         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pais       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ciudadExt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> monto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moneda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> funcionarioPublico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recursosPublicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> expuestoPoliticamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaExpuesto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mes       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fecha        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AnnoAfetacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fechaActual  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Banco                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vinculo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plan     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tomarSeguroAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nombresSeguroAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parentescoSeguroAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pNombreRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sNombreRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pApellidoRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sApellidoRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relacionRefP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> celRefP       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pNombreRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sNombreRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pApellidoRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sApellidoRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relacionRefF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> celRefF      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> decisionExcepcion </t>
+  </si>
+  <si>
+    <t>NumRadicacion</t>
+  </si>
+  <si>
+    <t>tipocontratoAbacus</t>
+  </si>
+  <si>
+    <t>"COLFONDOS"</t>
+  </si>
+  <si>
+    <t>"5744075"</t>
+  </si>
+  <si>
+    <t>"1.70"</t>
+  </si>
+  <si>
+    <t>"8500000"</t>
+  </si>
+  <si>
+    <t>"07/03/2022"</t>
+  </si>
+  <si>
+    <t>"DELIO"</t>
+  </si>
+  <si>
+    <t>"ARNULFO"</t>
+  </si>
+  <si>
+    <t>"ROJAS"</t>
+  </si>
+  <si>
+    <t>"GUIO"</t>
+  </si>
+  <si>
+    <t>"Soacha"</t>
+  </si>
+  <si>
+    <t>"Pensionado"</t>
+  </si>
+  <si>
+    <t>"20500000"</t>
+  </si>
+  <si>
+    <t>"Jubilados"</t>
+  </si>
+  <si>
+    <t>"10/03/2000"</t>
+  </si>
+  <si>
+    <t>"Cundinamarca"</t>
+  </si>
+  <si>
+    <t>"Anapoima"</t>
+  </si>
+  <si>
+    <t>"Educacion propia"</t>
+  </si>
+  <si>
+    <t>"M"</t>
+  </si>
+  <si>
+    <t>"Soltera/o"</t>
+  </si>
+  <si>
+    <t>"Calle 2d #22-52"</t>
+  </si>
+  <si>
+    <t>"Arriendo"</t>
+  </si>
+  <si>
+    <t>"perez"</t>
+  </si>
+  <si>
+    <t>"alejandro"</t>
+  </si>
+  <si>
+    <t>"7210273"</t>
+  </si>
+  <si>
+    <t>"9007146"</t>
+  </si>
+  <si>
+    <t>"3112"</t>
+  </si>
+  <si>
+    <t>29/10/2021</t>
+  </si>
+  <si>
+    <t>"81768"</t>
+  </si>
+  <si>
+    <t>"DELIO ARNULFO ROJAS GUIO"</t>
+  </si>
+  <si>
+    <t>"15/02/1956"</t>
+  </si>
+  <si>
+    <t>"Entidad donde trabaja"</t>
+  </si>
+  <si>
+    <t>"Retanqueo libre inversión"</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"12345"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"06/08/1976" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Estrato 1" </t>
+  </si>
+  <si>
+    <t>"Casa"</t>
+  </si>
+  <si>
+    <t>"Jefe de hogar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Universitario" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desprendible de nómina" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Pago masivo (efectivo)" </t>
+  </si>
+  <si>
+    <t>"AAA"</t>
+  </si>
+  <si>
+    <t>"colombia"</t>
+  </si>
+  <si>
+    <t>"colombiano"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ingeniero" </t>
+  </si>
+  <si>
+    <t>"24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2"   </t>
+  </si>
+  <si>
+    <t>"pension"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"123456"  </t>
+  </si>
+  <si>
+    <t>"30/12/2022"</t>
+  </si>
+  <si>
+    <t>"123456"</t>
+  </si>
+  <si>
+    <t>"Certificación laboral"</t>
+  </si>
+  <si>
+    <t>"CEO"</t>
+  </si>
+  <si>
+    <t>"Luis Perez Ramirez"</t>
+  </si>
+  <si>
+    <t>"1234567890"</t>
+  </si>
+  <si>
+    <t>"No"</t>
+  </si>
+  <si>
+    <t>"Importaciones"</t>
+  </si>
+  <si>
+    <t>"Santander"</t>
+  </si>
+  <si>
+    <t>"966855"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Inversiones en oro" </t>
+  </si>
+  <si>
+    <t>"Alemania"</t>
+  </si>
+  <si>
+    <t>"Berlin"</t>
+  </si>
+  <si>
+    <t>"8500"</t>
+  </si>
+  <si>
+    <t>"Euros"</t>
+  </si>
+  <si>
+    <t>"12/12/2008"</t>
+  </si>
+  <si>
+    <t>"16/02/2022"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bancolombia Remanentes - 60237038927 - REMANENTE" </t>
+  </si>
+  <si>
+    <t>"Vinculado"</t>
+  </si>
+  <si>
+    <t>"Plan 1"</t>
+  </si>
+  <si>
+    <t>"Juli Macias"</t>
+  </si>
+  <si>
+    <t>"Prima"</t>
+  </si>
+  <si>
+    <t>"maria"</t>
+  </si>
+  <si>
+    <t>"camila"</t>
+  </si>
+  <si>
+    <t>"lopez"</t>
+  </si>
+  <si>
+    <t>"cardenas"</t>
+  </si>
+  <si>
+    <t>"Amigo"</t>
+  </si>
+  <si>
+    <t>"3204567894"</t>
+  </si>
+  <si>
+    <t>"juan"</t>
+  </si>
+  <si>
+    <t>"david"</t>
+  </si>
+  <si>
+    <t>"reyes"</t>
+  </si>
+  <si>
+    <t>"sanchez"</t>
+  </si>
+  <si>
+    <t>"Hijo"</t>
+  </si>
+  <si>
+    <t>"3204047804"</t>
+  </si>
+  <si>
+    <t>"Pensionado por Invalidez"</t>
+  </si>
+  <si>
+    <t>"50500000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"daabogadog@hotmail.com" </t>
+  </si>
+  <si>
+    <t>"3142739038"</t>
+  </si>
+  <si>
+    <t>"92845"</t>
+  </si>
+  <si>
+    <t>"09/03/2022"</t>
+  </si>
+  <si>
+    <t>"92847"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3606,8 +5303,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3625,6 +5329,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3635,12 +5344,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
@@ -3653,9 +5363,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3669,13 +5376,317 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4204,7 +6215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -4297,122 +6308,122 @@
         <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F2">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J2">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AA2">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="13"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{8C69726B-A170-403B-85D4-861645813F44}"/>
@@ -4507,10 +6518,10 @@
         <v>26</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -4522,36 +6533,36 @@
         <v>6</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>20</v>
@@ -4563,40 +6574,40 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -4604,28 +6615,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1 A4:XFD1048576 Q3:R3 W3:XFD3">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:XFD2">
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:R2 W2">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:P3">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F2">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J2">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:U3">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{1DEB2772-B16F-498D-99D3-F8075F6E9EBE}"/>
@@ -4734,63 +6745,63 @@
         <v>26</v>
       </c>
       <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" t="s">
-        <v>35</v>
-      </c>
       <c r="X1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AD1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>17</v>
@@ -4808,66 +6819,66 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>91</v>
+      <c r="AD2" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J2">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N2">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{A2E15BB9-0155-4310-87D2-2FBC767C3147}"/>
@@ -4880,9 +6891,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD10BD7-2917-47E9-9904-E83A367B63F9}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4909,154 +6922,781 @@
     <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>24</v>
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
       </c>
       <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="R1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>46</v>
+      <c r="X1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>204</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>263</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>272</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>273</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
+      <c r="CS2" t="s">
+        <v>274</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>278</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>279</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>280</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>281</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>282</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>283</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>284</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>285</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>286</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>287</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>288</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>289</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>290</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>291</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>264</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>296</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J2">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  <conditionalFormatting sqref="CU2:DL2 CB2 BY2 DN2:XFD2">
+    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="36" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G2">
+    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:K2">
+    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:N2">
+    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:P2">
+    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:T2">
+    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:V2">
+    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:AB2">
+    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AE2">
+    <cfRule type="duplicateValues" dxfId="28" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AG2">
+    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AL2">
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2">
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2">
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AP2">
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2">
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AS2">
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DM2">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{2865A013-D7F9-467C-8AA4-D1FAFE839B57}"/>
+    <hyperlink ref="W2" r:id="rId1" display="prueba123@gmail.com" xr:uid="{AB10DCA5-36CB-407F-BA43-F0D835DFD88C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -5065,9 +7705,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5096,181 +7738,781 @@
     <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>24</v>
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
       </c>
       <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>204</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="AN2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>263</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>272</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>273</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T3" s="2"/>
+      <c r="CS2" t="s">
+        <v>274</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>278</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>279</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>280</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>281</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>282</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>283</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>284</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>285</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>286</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>287</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>288</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>289</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>290</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>291</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>264</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 X2:XFD2">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:W3">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  <conditionalFormatting sqref="CU2:DL2 CB2 BY2 DN2:XFD2">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:R2 W2">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J2">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:G4">
+  <conditionalFormatting sqref="C2:G2">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:K2">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:N2">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:P2">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:T2">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:V2">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:AB2">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AE2">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AG2">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AL2">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AP2">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
+  <conditionalFormatting sqref="AR2:AS2">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="DM2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" display="dandresabogadog@mail.com" xr:uid="{0787D1B1-37C4-4BE4-9406-B1FF146ACD7E}"/>
+    <hyperlink ref="W2" r:id="rId1" display="prueba123@gmail.com" xr:uid="{3D21D3AD-177E-40C3-93B8-2A4AA438125E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF3330-3A36-4697-8E3B-F8458857E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD566B84-CB83-442E-A3B6-BA139E127F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1875" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -3205,7 +3205,7 @@
     <author>Analista Desarrollo59</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2BFBF2F8-68F0-43AF-B40E-0208DECAC83A}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{85786084-C87C-4D62-AC75-5249A249A2EC}">
       <text>
         <r>
           <rPr>
@@ -3229,7 +3229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B9825CC2-A720-48AD-9CA2-96008A31FB4D}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{C5AD5989-E69F-4B0A-91A5-B3BE213B6CB5}">
       <text>
         <r>
           <rPr>
@@ -3254,7 +3254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2E67BFC6-F3DB-4BF1-8C82-CD7E38E7F898}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F645C99B-949A-4E99-A682-12379D25DF80}">
       <text>
         <r>
           <rPr>
@@ -3281,7 +3281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5691D90A-8AC8-43C5-9E98-E478B520498D}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{3ED63F9E-A3DF-4E00-AC18-EA22B0051D34}">
       <text>
         <r>
           <rPr>
@@ -3306,7 +3306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{3459040A-45D0-4DD8-8AD7-680FDED7E761}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{F2305C7F-B548-4873-A73E-4E426E9FB049}">
       <text>
         <r>
           <rPr>
@@ -3331,7 +3331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{3E1AC268-8588-45C1-BFD8-51CF3C61525F}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{EE2806FD-BCE6-4257-AAB0-EE9A97755982}">
       <text>
         <r>
           <rPr>
@@ -3355,7 +3355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{84E10093-94C7-4E86-BF1D-CF2C0765CC96}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{B674FED3-9B1E-4EE8-8CF9-78438E6700A3}">
       <text>
         <r>
           <rPr>
@@ -3380,7 +3380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3AB57B28-FCBE-47B2-A462-23A3EDDC85A9}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{64A0DDFB-101A-411B-9DA0-BC2B9EDB76D5}">
       <text>
         <r>
           <rPr>
@@ -3405,7 +3405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{201D07C0-B41B-4DF6-82B3-E7BCF22A1020}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{0976E831-C182-4ACA-8519-2231BF573354}">
       <text>
         <r>
           <rPr>
@@ -3430,7 +3430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{67DED166-575A-4D57-B012-9D285A78EC1B}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{228C12E6-607E-4267-A731-9646050DF3B4}">
       <text>
         <r>
           <rPr>
@@ -3456,7 +3456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{F54E1252-37BD-4C4F-9A6A-2BD70413184D}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{06F40B6E-DD72-4387-81D2-91EAE1D5D289}">
       <text>
         <r>
           <rPr>
@@ -3485,7 +3485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{D7B3A403-47EE-4B65-8ECA-34C25D213EFF}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{40DE1F0D-45E5-4EEB-892E-5FDF54729055}">
       <text>
         <r>
           <rPr>
@@ -3510,7 +3510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{7206A561-3EBF-4ADD-9FF8-7C9FA89E678E}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{134297C4-F315-4664-A017-6B966007ACE4}">
       <text>
         <r>
           <rPr>
@@ -3535,7 +3535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{AD9D6910-44C1-4BFA-80D3-5D9BDF0BD0C1}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{AE6127D6-1A41-4409-9F4B-5F9498FE7B72}">
       <text>
         <r>
           <rPr>
@@ -3560,7 +3560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{E3A5B7A7-B915-40C3-825B-D3D41088B221}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{EBF82A14-B6B9-4253-B7F7-2DDFCC51FE0B}">
       <text>
         <r>
           <rPr>
@@ -3585,7 +3585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{F6B3E799-E8B4-491A-A2A4-E8BB2FA8EA9B}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{E8E53342-53A9-4CA7-AAB0-C0AAD94B92A8}">
       <text>
         <r>
           <rPr>
@@ -3613,7 +3613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{DB4D24B2-EFC6-46A8-A14A-AEDCEF1B20ED}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{3929DBEC-1A62-4D57-8EFC-04B56201E67F}">
       <text>
         <r>
           <rPr>
@@ -3638,7 +3638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{651A0592-A231-4C90-B5E3-64844C4D7FD6}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{95C616D0-E129-41B6-9B69-5286CDFB2E5E}">
       <text>
         <r>
           <rPr>
@@ -3664,7 +3664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{9B5E2F70-61BF-437D-8D32-E46FD857165A}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{3A901338-DB4D-4DCE-871F-1EE03336D37C}">
       <text>
         <r>
           <rPr>
@@ -3689,7 +3689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{5D6CD007-EB6E-4640-AF4B-16F40DE04C5A}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{26406C85-3219-44C9-8E5B-2C37EA1365E5}">
       <text>
         <r>
           <rPr>
@@ -3714,7 +3714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{66C12613-81C8-49C6-A9BF-AA49198E20FA}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{9E4D6C70-2F9E-49F0-9B55-8DAA1B43CF40}">
       <text>
         <r>
           <rPr>
@@ -3739,7 +3739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{45E7F03D-1B8D-4579-B8DF-3591B11E0EED}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{5A411952-E2D0-4787-911D-314233F486F9}">
       <text>
         <r>
           <rPr>
@@ -3767,7 +3767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{CCA169F4-1BF4-43A0-BE4A-E2E6AEECCBF1}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{930D9772-7E23-4722-B70D-51FEB5DB5A40}">
       <text>
         <r>
           <rPr>
@@ -3792,7 +3792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{C9594177-94E8-4684-9BC4-00950819E874}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{B6948DCF-B0D8-49C9-BF5B-BBDBA109F2E6}">
       <text>
         <r>
           <rPr>
@@ -3817,7 +3817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{72DFBA3C-11B1-4359-BDD2-B200E5B1211D}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{BEA9A9A7-FB44-4CEB-8B30-CAB6C21ED70B}">
       <text>
         <r>
           <rPr>
@@ -3841,7 +3841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{66AFCC9F-58B3-4796-B8D0-83FDD0390E98}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{009319AF-AE24-4261-97A8-195C2B461FA1}">
       <text>
         <r>
           <rPr>
@@ -3865,7 +3865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{1CEA1F91-C452-479E-95B3-2AC532BB94B3}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{DD5FF67B-4933-4A0C-B50D-C7349C6EF9E2}">
       <text>
         <r>
           <rPr>
@@ -3890,7 +3890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{86F0E95C-0719-4C9F-B042-5DFC4F65728C}">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{6057E8C6-6695-4DDD-BBB2-2DFFB0A800B2}">
       <text>
         <r>
           <rPr>
@@ -3914,7 +3914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{830BE089-0FD2-4821-89B8-4433F374D944}">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{51D9E96B-FD6E-4ADD-8A1C-BC67192E2C3E}">
       <text>
         <r>
           <rPr>
@@ -3941,7 +3941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{C00C2A3F-61B3-48D3-8BFB-647DFA05DF0E}">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{C7AA21A4-017B-479C-A340-12C275C73974}">
       <text>
         <r>
           <rPr>
@@ -3966,7 +3966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{6CA4A338-CE9C-4E40-928E-AE272F0FC5AE}">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{0A4D186D-3757-4255-AB42-187A199CF492}">
       <text>
         <r>
           <rPr>
@@ -3991,7 +3991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{A2A4E285-3B16-46DB-8D38-A75FED561F31}">
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{C2FE29D2-0F1E-4499-A055-82581696C42F}">
       <text>
         <r>
           <rPr>
@@ -4018,7 +4018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{A6F5C9B7-F0CC-4E7F-9863-D91928306013}">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{05B269C9-E250-4F2F-98CA-5CFD0802BF10}">
       <text>
         <r>
           <rPr>
@@ -4044,7 +4044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{2BD0EBDB-2979-4AF6-AC80-67B38E83CD1F}">
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{1AE36022-4178-4042-B306-DC51BF7218BC}">
       <text>
         <r>
           <rPr>
@@ -4070,7 +4070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{BEE026B9-8822-489C-AB19-3ACDB3A92731}">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{834D4811-4196-4797-AD6C-F817C5788AB3}">
       <text>
         <r>
           <rPr>
@@ -4096,7 +4096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{4DBC6FD7-4849-4AF3-9FE7-FC88F0FA290F}">
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{91DF2203-8FC1-47A8-B14C-B1D7F1FE2BAA}">
       <text>
         <r>
           <rPr>
@@ -4122,7 +4122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{2330811B-167D-4488-A277-E9A76A14B261}">
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{EC428530-97BC-4845-ABA2-B67752CB9166}">
       <text>
         <r>
           <rPr>
@@ -4146,7 +4146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{74C1BAEA-2CD7-4CE3-9A80-A40BB622750C}">
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{C86822AB-F7B8-4A81-A029-CA1587A9186D}">
       <text>
         <r>
           <rPr>
@@ -4172,7 +4172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{7C174C08-695F-4FC9-B961-6DF31525DB4D}">
+    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{95211F61-56FF-4701-AFBE-6146297ED2EF}">
       <text>
         <r>
           <rPr>
@@ -4197,7 +4197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="0" shapeId="0" xr:uid="{C7F0413D-3C06-48EC-851D-7E3F8D4B35E5}">
+    <comment ref="AN2" authorId="0" shapeId="0" xr:uid="{EFD659CA-D5FB-4015-B433-4BE53CF03CD4}">
       <text>
         <r>
           <rPr>
@@ -4221,7 +4221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="0" shapeId="0" xr:uid="{FE843254-BDD6-4052-B029-C72B38852B0E}">
+    <comment ref="AO2" authorId="0" shapeId="0" xr:uid="{C8A564EE-0E56-4B11-B4C1-376972DB198D}">
       <text>
         <r>
           <rPr>
@@ -4245,7 +4245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{A81046B3-CBE3-4CD6-8EA1-E2F3132DB6F1}">
+    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{58A97E5C-1822-4459-91D1-C06B4D5CFFB8}">
       <text>
         <r>
           <rPr>
@@ -4269,7 +4269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{E3455D6B-4CB9-4D7D-AF5F-223586D8734A}">
+    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{066F0FAB-1A70-40A6-B795-7E52627E10F1}">
       <text>
         <r>
           <rPr>
@@ -4299,7 +4299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{89B4D1FF-711C-41DE-BBCC-F80FC54F309B}">
+    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{7E843D66-6EE9-4A7A-A3D5-93E25C9476BA}">
       <text>
         <r>
           <rPr>
@@ -4324,7 +4324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{64BA9368-BCF4-4FCE-9869-EF13938EFFD4}">
+    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{CAE7D91B-2882-4C98-BCCC-1D82C6D9A828}">
       <text>
         <r>
           <rPr>
@@ -4354,7 +4354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="307">
   <si>
     <t>Cedula</t>
   </si>
@@ -5250,7 +5250,31 @@
     <t>"09/03/2022"</t>
   </si>
   <si>
-    <t>"92847"</t>
+    <t>"P.A COLPENSIONES"</t>
+  </si>
+  <si>
+    <t>"14/03/2022"</t>
+  </si>
+  <si>
+    <t>"450000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"daabogadog@gmail.com" </t>
+  </si>
+  <si>
+    <t>"3115139037"</t>
+  </si>
+  <si>
+    <t>"Retanqueo compra de cartera"</t>
+  </si>
+  <si>
+    <t>"Si"</t>
+  </si>
+  <si>
+    <t>"92862"</t>
+  </si>
+  <si>
+    <t>"18/03/2022"</t>
   </si>
 </sst>
 </file>
@@ -7707,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
   <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8096,7 +8120,7 @@
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>210</v>
@@ -8111,7 +8135,7 @@
         <v>293</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>212</v>
@@ -8126,7 +8150,7 @@
         <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>214</v>
@@ -8141,7 +8165,7 @@
         <v>217</v>
       </c>
       <c r="P2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>218</v>
@@ -8153,7 +8177,7 @@
         <v>220</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>221</v>
@@ -8162,10 +8186,10 @@
         <v>222</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>223</v>
@@ -8207,7 +8231,7 @@
         <v>234</v>
       </c>
       <c r="AL2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="s">
         <v>35</v>
@@ -8225,7 +8249,7 @@
         <v>235</v>
       </c>
       <c r="AR2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AS2" s="16" t="s">
         <v>39</v>
@@ -8243,7 +8267,7 @@
         <v>239</v>
       </c>
       <c r="AX2" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="AY2" t="s">
         <v>241</v>
@@ -8396,7 +8420,7 @@
         <v>277</v>
       </c>
       <c r="CW2" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="CX2" t="s">
         <v>278</v>
@@ -8444,7 +8468,7 @@
         <v>264</v>
       </c>
       <c r="DM2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="DN2" t="s">
         <v>292</v>
@@ -8452,7 +8476,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU2:DL2 CB2 BY2 DN2:XFD2">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
@@ -8512,7 +8536,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" display="prueba123@gmail.com" xr:uid="{3D21D3AD-177E-40C3-93B8-2A4AA438125E}"/>
+    <hyperlink ref="W2" r:id="rId1" display="prueba123@gmail.com" xr:uid="{B7C21627-F18A-4EBA-BB86-CBEA2E76C553}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/test/resources/Data/AutomationDataRetanqueo.xlsx
+++ b/src/test/resources/Data/AutomationDataRetanqueo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Documents\TestAutomationPOM\TestAutomationPOM\testautomationpom\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\recursos\testautomationpom\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD566B84-CB83-442E-A3B6-BA139E127F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81215BC7-0478-4A14-B11D-ADCF541A8748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27C76FE5-7130-4509-9702-8B57384CB331}"/>
   </bookViews>
   <sheets>
     <sheet name="Retanqueo" sheetId="11" r:id="rId1"/>
@@ -4602,36 +4602,12 @@
     <t>"aalvarez@excelcredit.co"</t>
   </si>
   <si>
-    <t>"05/05/1945"</t>
-  </si>
-  <si>
     <t>"3183903022"</t>
   </si>
   <si>
-    <t>"03/03/2022"</t>
-  </si>
-  <si>
-    <t>"99509"</t>
-  </si>
-  <si>
-    <t>"1.71"</t>
-  </si>
-  <si>
     <t>"Marzo"</t>
   </si>
   <si>
-    <t>"7255282"</t>
-  </si>
-  <si>
-    <t>"2036000"</t>
-  </si>
-  <si>
-    <t>"871228"</t>
-  </si>
-  <si>
-    <t>"JAIVER"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pagaduria</t>
   </si>
   <si>
@@ -5275,6 +5251,30 @@
   </si>
   <si>
     <t>"18/03/2022"</t>
+  </si>
+  <si>
+    <t>"7500000"</t>
+  </si>
+  <si>
+    <t>"200000"</t>
+  </si>
+  <si>
+    <t>"Abril"</t>
+  </si>
+  <si>
+    <t>"25/03/1959"</t>
+  </si>
+  <si>
+    <t>"06/04/2022"</t>
+  </si>
+  <si>
+    <t>"MYRIAM"</t>
+  </si>
+  <si>
+    <t>"95817"</t>
+  </si>
+  <si>
+    <t>"29303804"</t>
   </si>
 </sst>
 </file>
@@ -6239,8 +6239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373B57FB-76BC-4A6C-A0D1-7CDD5BB1EE2F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6361,16 +6361,16 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>56</v>
@@ -6379,13 +6379,13 @@
         <v>56</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
@@ -6394,19 +6394,19 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>301</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="P2" t="s">
         <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>81</v>
@@ -6415,7 +6415,7 @@
         <v>28</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>71</v>
@@ -6433,7 +6433,7 @@
         <v>60</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>67</v>
@@ -6948,381 +6948,381 @@
   <sheetData>
     <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>103</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>104</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>105</v>
-      </c>
-      <c r="O1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" t="s">
-        <v>113</v>
       </c>
       <c r="W1" t="s">
         <v>5</v>
       </c>
       <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AH1" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AI1" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AJ1" t="s">
         <v>118</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AL1" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AM1" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AP1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AR1" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>127</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AT1" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AU1" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AV1" t="s">
         <v>130</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AW1" t="s">
         <v>131</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AX1" t="s">
         <v>132</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AY1" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AZ1" t="s">
         <v>134</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BA1" t="s">
         <v>135</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BB1" t="s">
         <v>136</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BC1" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BD1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BE1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BF1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BG1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BH1" t="s">
         <v>142</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BI1" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BJ1" t="s">
         <v>144</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BK1" t="s">
         <v>145</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BL1" t="s">
         <v>146</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BM1" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BN1" t="s">
         <v>148</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BO1" t="s">
         <v>149</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BP1" t="s">
         <v>150</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BQ1" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BR1" t="s">
         <v>152</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BS1" t="s">
         <v>153</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BT1" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BU1" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BV1" t="s">
         <v>156</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BW1" t="s">
         <v>157</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BX1" t="s">
         <v>158</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BY1" t="s">
         <v>159</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BZ1" t="s">
         <v>160</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CA1" t="s">
         <v>161</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CB1" t="s">
         <v>162</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CC1" t="s">
         <v>163</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CD1" t="s">
         <v>164</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CE1" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CF1" t="s">
         <v>166</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CG1" t="s">
         <v>167</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CH1" t="s">
         <v>168</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CI1" t="s">
         <v>169</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CJ1" t="s">
         <v>170</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CK1" t="s">
         <v>171</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CL1" t="s">
         <v>172</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CM1" t="s">
         <v>173</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CN1" t="s">
         <v>174</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CO1" t="s">
         <v>175</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CP1" t="s">
         <v>176</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CQ1" t="s">
         <v>177</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CR1" t="s">
         <v>178</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CS1" t="s">
         <v>179</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CT1" t="s">
         <v>180</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CU1" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CV1" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CW1" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CX1" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CY1" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CZ1" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DA1" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="DB1" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DC1" t="s">
         <v>189</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DD1" t="s">
         <v>190</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DE1" t="s">
         <v>191</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DF1" t="s">
         <v>192</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DG1" t="s">
         <v>193</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DH1" t="s">
         <v>194</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DI1" t="s">
         <v>195</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DJ1" t="s">
         <v>196</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DK1" t="s">
         <v>197</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DL1" t="s">
         <v>198</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DM1" t="s">
         <v>199</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DN1" t="s">
         <v>200</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>205</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>206</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>43</v>
@@ -7331,88 +7331,88 @@
         <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AB2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>225</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AK2" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="AL2" t="s">
         <v>27</v>
@@ -7430,7 +7430,7 @@
         <v>60</v>
       </c>
       <c r="AQ2" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AR2" t="s">
         <v>39</v>
@@ -7439,148 +7439,148 @@
         <v>39</v>
       </c>
       <c r="AT2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC2" t="s">
         <v>236</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>237</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="BE2" t="s">
         <v>238</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>239</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>242</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>246</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>247</v>
       </c>
       <c r="BG2" t="s">
         <v>21</v>
       </c>
       <c r="BH2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="BI2" t="s">
         <v>76</v>
       </c>
       <c r="BJ2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="BK2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="BL2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="BM2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="BN2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="BO2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="BP2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="BQ2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="BR2" t="s">
         <v>39</v>
       </c>
       <c r="BS2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB2" t="s">
         <v>256</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CC2" t="s">
         <v>257</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CD2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CE2" t="s">
         <v>258</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CF2" t="s">
         <v>259</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CG2" t="s">
         <v>260</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CH2" t="s">
         <v>261</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CI2" t="s">
         <v>262</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CJ2" t="s">
         <v>263</v>
       </c>
-      <c r="CA2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB2" t="s">
+      <c r="CK2" t="s">
         <v>264</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CL2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CO2" t="s">
         <v>265</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>268</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>269</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>270</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>271</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>272</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>273</v>
       </c>
       <c r="CP2" t="s">
         <v>75</v>
@@ -7592,70 +7592,70 @@
         <v>50</v>
       </c>
       <c r="CS2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>272</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DB2" t="s">
         <v>274</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DC2" t="s">
         <v>275</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DD2" t="s">
         <v>276</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DE2" t="s">
         <v>277</v>
       </c>
-      <c r="CW2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CX2" t="s">
+      <c r="DF2" t="s">
         <v>278</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DG2" t="s">
         <v>279</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DH2" t="s">
         <v>280</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DI2" t="s">
         <v>281</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DJ2" t="s">
         <v>282</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DK2" t="s">
         <v>283</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DL2" t="s">
+        <v>256</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>288</v>
+      </c>
+      <c r="DN2" t="s">
         <v>284</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>285</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>286</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>287</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>288</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>289</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>290</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>296</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -7731,7 +7731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941B7E2-706E-4D94-84AC-BEDA7D2028C7}">
   <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -7764,381 +7764,381 @@
   <sheetData>
     <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>103</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>104</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>105</v>
-      </c>
-      <c r="O1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" t="s">
-        <v>113</v>
       </c>
       <c r="W1" t="s">
         <v>5</v>
       </c>
       <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AH1" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AI1" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AJ1" t="s">
         <v>118</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AL1" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AM1" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AP1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AR1" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>127</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AT1" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AU1" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AV1" t="s">
         <v>130</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AW1" t="s">
         <v>131</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AX1" t="s">
         <v>132</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AY1" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AZ1" t="s">
         <v>134</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BA1" t="s">
         <v>135</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BB1" t="s">
         <v>136</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BC1" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BD1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BE1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BF1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BG1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BH1" t="s">
         <v>142</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BI1" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BJ1" t="s">
         <v>144</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BK1" t="s">
         <v>145</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BL1" t="s">
         <v>146</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BM1" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BN1" t="s">
         <v>148</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BO1" t="s">
         <v>149</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BP1" t="s">
         <v>150</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BQ1" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BR1" t="s">
         <v>152</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BS1" t="s">
         <v>153</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BT1" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BU1" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BV1" t="s">
         <v>156</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BW1" t="s">
         <v>157</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BX1" t="s">
         <v>158</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BY1" t="s">
         <v>159</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BZ1" t="s">
         <v>160</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CA1" t="s">
         <v>161</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CB1" t="s">
         <v>162</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CC1" t="s">
         <v>163</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CD1" t="s">
         <v>164</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CE1" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CF1" t="s">
         <v>166</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CG1" t="s">
         <v>167</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CH1" t="s">
         <v>168</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CI1" t="s">
         <v>169</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CJ1" t="s">
         <v>170</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CK1" t="s">
         <v>171</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CL1" t="s">
         <v>172</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CM1" t="s">
         <v>173</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CN1" t="s">
         <v>174</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CO1" t="s">
         <v>175</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CP1" t="s">
         <v>176</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CQ1" t="s">
         <v>177</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CR1" t="s">
         <v>178</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CS1" t="s">
         <v>179</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CT1" t="s">
         <v>180</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CU1" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CV1" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CW1" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CX1" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CY1" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CZ1" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DA1" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="DB1" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DC1" t="s">
         <v>189</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DD1" t="s">
         <v>190</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DE1" t="s">
         <v>191</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DF1" t="s">
         <v>192</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DG1" t="s">
         <v>193</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DH1" t="s">
         <v>194</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DI1" t="s">
         <v>195</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DJ1" t="s">
         <v>196</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DK1" t="s">
         <v>197</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DL1" t="s">
         <v>198</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DM1" t="s">
         <v>199</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DN1" t="s">
         <v>200</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>205</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>206</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>43</v>
@@ -8147,88 +8147,88 @@
         <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="W2" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="P2" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AB2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>225</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AK2" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="AL2" t="s">
         <v>50</v>
@@ -8246,7 +8246,7 @@
         <v>60</v>
       </c>
       <c r="AQ2" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AR2" t="s">
         <v>39</v>
@@ -8255,148 +8255,148 @@
         <v>39</v>
       </c>
       <c r="AT2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC2" t="s">
         <v>236</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>237</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="BE2" t="s">
         <v>238</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>239</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>242</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>246</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>247</v>
       </c>
       <c r="BG2" t="s">
         <v>21</v>
       </c>
       <c r="BH2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="BI2" t="s">
         <v>76</v>
       </c>
       <c r="BJ2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="BK2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="BL2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="BM2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="BN2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="BO2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="BP2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="BQ2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="BR2" t="s">
         <v>39</v>
       </c>
       <c r="BS2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB2" t="s">
         <v>256</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CC2" t="s">
         <v>257</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CD2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CE2" t="s">
         <v>258</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CF2" t="s">
         <v>259</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CG2" t="s">
         <v>260</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CH2" t="s">
         <v>261</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CI2" t="s">
         <v>262</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CJ2" t="s">
         <v>263</v>
       </c>
-      <c r="CA2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB2" t="s">
+      <c r="CK2" t="s">
         <v>264</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CL2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CO2" t="s">
         <v>265</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>267</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>268</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>269</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>270</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>271</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>272</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>273</v>
       </c>
       <c r="CP2" t="s">
         <v>75</v>
@@ -8408,70 +8408,70 @@
         <v>50</v>
       </c>
       <c r="CS2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>296</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>272</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DB2" t="s">
         <v>274</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DC2" t="s">
         <v>275</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DD2" t="s">
         <v>276</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DE2" t="s">
         <v>277</v>
       </c>
-      <c r="CW2" t="s">
-        <v>304</v>
-      </c>
-      <c r="CX2" t="s">
+      <c r="DF2" t="s">
         <v>278</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DG2" t="s">
         <v>279</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DH2" t="s">
         <v>280</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DI2" t="s">
         <v>281</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DJ2" t="s">
         <v>282</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DK2" t="s">
         <v>283</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DL2" t="s">
+        <v>256</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>297</v>
+      </c>
+      <c r="DN2" t="s">
         <v>284</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>285</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>286</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>287</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>288</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>289</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>290</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>305</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
